--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_7_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_7_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2254707.94600888</v>
+        <v>-2255420.247831924</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058542</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1212,58 +1212,58 @@
         <v>3.199249640013477</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.199249640013477</v>
+      </c>
+      <c r="E9" t="n">
         <v>2.817899082923868</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.199249640013477</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>86.4341933758854</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="F11" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>166.0289796675927</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240827</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929905</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.36988737129812</v>
+        <v>9.369887371298091</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44252716693651</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="T12" t="n">
-        <v>121.5777169185064</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382081</v>
+        <v>59.07980534382078</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50065676233444</v>
+        <v>106.2507727062555</v>
       </c>
       <c r="W12" t="n">
-        <v>88.55631942394379</v>
+        <v>88.55631942394376</v>
       </c>
       <c r="X12" t="n">
-        <v>188.4979333192472</v>
+        <v>39.16465028640278</v>
       </c>
       <c r="Y12" t="n">
-        <v>188.4979333192472</v>
+        <v>45.23602198095779</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256632</v>
+        <v>25.2816970025663</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311276</v>
+        <v>57.28978021311273</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725521</v>
+        <v>45.61329429725518</v>
       </c>
       <c r="U13" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V13" t="n">
-        <v>66.9607510313821</v>
+        <v>66.96075103138207</v>
       </c>
       <c r="W13" t="n">
         <v>112.1624429362675</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77119125517473</v>
+        <v>43.7711912551747</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110062</v>
+        <v>38.99300866110059</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.019328389718851</v>
+        <v>116.7570278223846</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.6238954891595</v>
       </c>
       <c r="E14" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554827</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.86150506240824</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.73328122929904</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.31761724675142</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.7315194560842</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6344501416383</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>55.72025229213785</v>
+        <v>9.369887371298091</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>84.75505746608397</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44252716693646</v>
+        <v>13.44252716693649</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82265945242242</v>
+        <v>36.82265945242245</v>
       </c>
       <c r="U15" t="n">
-        <v>59.07980534382075</v>
+        <v>59.07980534382078</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50065676233439</v>
+        <v>62.50065676233442</v>
       </c>
       <c r="W15" t="n">
-        <v>88.55631942394373</v>
+        <v>88.55631942394376</v>
       </c>
       <c r="X15" t="n">
-        <v>39.16465028640275</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.23602198095776</v>
+        <v>188.4979333192471</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256626</v>
+        <v>25.2816970025663</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311271</v>
+        <v>57.28978021311273</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725515</v>
+        <v>45.61329429725518</v>
       </c>
       <c r="U16" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96075103138205</v>
+        <v>66.96075103138207</v>
       </c>
       <c r="W16" t="n">
         <v>112.1624429362675</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77119125517467</v>
+        <v>43.7711912551747</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110056</v>
+        <v>38.99300866110059</v>
       </c>
     </row>
     <row r="17">
@@ -1920,25 +1920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>25.41950479923526</v>
       </c>
       <c r="H18" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R18" t="n">
         <v>134.7198007890777</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>122.4893880130172</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2172,16 +2172,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>59.96853146987246</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>107.3634103439874</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,19 +2202,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.869455874161069</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="U21" t="n">
-        <v>188.4979333192472</v>
+        <v>22.16235824038618</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
     </row>
     <row r="22">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>5.948846749374433</v>
       </c>
       <c r="T24" t="n">
-        <v>31.30917887851518</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
         <v>188.4979333192471</v>
-      </c>
-      <c r="V24" t="n">
-        <v>188.4979333192471</v>
-      </c>
-      <c r="W24" t="n">
-        <v>188.4979333192471</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>124.2874091182263</v>
       </c>
       <c r="E26" t="n">
-        <v>157.9941615376351</v>
+        <v>157.9941615376352</v>
       </c>
       <c r="F26" t="n">
         <v>189.7144991160125</v>
@@ -2570,10 +2570,10 @@
         <v>205.3534224386475</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5366480845495</v>
+        <v>133.5366480845496</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147505</v>
+        <v>27.52501869147508</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444716</v>
+        <v>14.03224403444719</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818252</v>
+        <v>8.98113087581828</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864874</v>
+        <v>36.66579096864876</v>
       </c>
       <c r="V26" t="n">
         <v>107.395033085151</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>68.60138496442887</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489263</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2280694968886</v>
+        <v>23.74331897288762</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16417039140123</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.2198330530106</v>
       </c>
       <c r="X27" t="n">
-        <v>3.828163915469588</v>
+        <v>3.828163915469617</v>
       </c>
       <c r="Y27" t="n">
-        <v>54.39728224360296</v>
+        <v>9.899535610024628</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95329384217955</v>
+        <v>21.95329384217958</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632199</v>
+        <v>10.27680792632202</v>
       </c>
       <c r="U28" t="n">
-        <v>75.1718064445646</v>
+        <v>75.17180644456462</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044889</v>
+        <v>31.62426466044892</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533431</v>
+        <v>76.82595656533434</v>
       </c>
       <c r="X28" t="n">
-        <v>8.434704884241512</v>
+        <v>8.43470488424154</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.656522290167402</v>
+        <v>3.65652229016743</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.6024898538324</v>
+        <v>160.6024898538323</v>
       </c>
       <c r="C29" t="n">
-        <v>136.7207468571779</v>
+        <v>136.7207468571778</v>
       </c>
       <c r="D29" t="n">
         <v>124.2874091182263</v>
       </c>
       <c r="E29" t="n">
-        <v>157.9941615376352</v>
+        <v>157.9941615376351</v>
       </c>
       <c r="F29" t="n">
         <v>189.7144991160125</v>
       </c>
       <c r="G29" t="n">
-        <v>205.3534224386476</v>
+        <v>205.3534224386475</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5366480845496</v>
+        <v>133.5366480845495</v>
       </c>
       <c r="I29" t="n">
-        <v>27.5250186914751</v>
+        <v>27.52501869147505</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444723</v>
+        <v>14.03224403444717</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818295</v>
+        <v>8.98113087581824</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66579096864879</v>
+        <v>36.66579096864874</v>
       </c>
       <c r="V29" t="n">
-        <v>107.3950330851511</v>
+        <v>107.395033085151</v>
       </c>
       <c r="W29" t="n">
         <v>124.4117133017659</v>
       </c>
       <c r="X29" t="n">
-        <v>146.2979637707052</v>
+        <v>146.2979637707051</v>
       </c>
       <c r="Y29" t="n">
         <v>168.8008168944489</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>4.860938559341087</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161051</v>
+        <v>6.869455874161069</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.48617308148932</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74331897288765</v>
+        <v>23.74331897288759</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>223.6159002707467</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>53.21983305301057</v>
       </c>
       <c r="X30" t="n">
-        <v>3.828163915469645</v>
+        <v>3.828163915469588</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.899535610024657</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.9532938421796</v>
+        <v>21.95329384217955</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27680792632205</v>
+        <v>10.27680792632199</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17180644456465</v>
+        <v>75.1718064445646</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62426466044894</v>
+        <v>31.62426466044889</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82595656533437</v>
+        <v>76.82595656533431</v>
       </c>
       <c r="X31" t="n">
-        <v>8.434704884241569</v>
+        <v>8.434704884241512</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.656522290167459</v>
+        <v>3.656522290167402</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.20453416758298</v>
+        <v>13.20453416758295</v>
       </c>
       <c r="T32" t="n">
         <v>8.153421008954041</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>94.6338935027468</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3153,22 +3153,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146250524</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2280694968886</v>
+        <v>22.91560910602338</v>
       </c>
       <c r="V33" t="n">
-        <v>26.33646052453702</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>52.39212318614636</v>
+        <v>67.43335708710558</v>
       </c>
       <c r="X33" t="n">
         <v>3.000454048605377</v>
@@ -3387,16 +3387,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.869455874161069</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>53.48275576470871</v>
       </c>
       <c r="S36" t="n">
-        <v>36.97207935338393</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>237.2280694968886</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.6300885194036</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3624,13 +3624,13 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.869455874161069</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>57.55539556034707</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3642,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.140772277173706</v>
+        <v>9.14077227717371</v>
       </c>
       <c r="V41" t="n">
         <v>79.87001439367597</v>
@@ -3861,16 +3861,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161073</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>70.9358363337314</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
         <v>237.2280694968886</v>
@@ -3879,10 +3879,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69481436153555</v>
+        <v>162.713087934335</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>133.0774711623573</v>
       </c>
       <c r="C44" t="n">
-        <v>109.1957281657027</v>
+        <v>109.1957281657028</v>
       </c>
       <c r="D44" t="n">
-        <v>96.76239042675121</v>
+        <v>96.76239042675124</v>
       </c>
       <c r="E44" t="n">
         <v>130.4691428461601</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.140772277173678</v>
+        <v>9.14077227717371</v>
       </c>
       <c r="V44" t="n">
-        <v>79.87001439367594</v>
+        <v>79.87001439367597</v>
       </c>
       <c r="W44" t="n">
-        <v>96.88669461029082</v>
+        <v>96.88669461029085</v>
       </c>
       <c r="X44" t="n">
         <v>118.7729450792301</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280694968886</v>
+        <v>133.2365738542121</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.69481436153552</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.74716261249461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.64678775308953</v>
+        <v>47.64678775308956</v>
       </c>
       <c r="V46" t="n">
-        <v>4.099245968973833</v>
+        <v>4.099245968973861</v>
       </c>
       <c r="W46" t="n">
-        <v>49.30093787385925</v>
+        <v>49.30093787385928</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4829,7 +4829,7 @@
         <v>6.590454258427762</v>
       </c>
       <c r="S8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="T8" t="n">
         <v>6.719070557086891</v>
@@ -4860,16 +4860,16 @@
         <v>6.333867974168094</v>
       </c>
       <c r="C9" t="n">
-        <v>3.487505264143985</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="D9" t="n">
-        <v>3.487505264143985</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="E9" t="n">
-        <v>3.487505264143985</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="F9" t="n">
-        <v>3.487505264143985</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="G9" t="n">
         <v>0.2559399712010781</v>
@@ -4884,7 +4884,7 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
-        <v>3.42319711481442</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="L9" t="n">
         <v>3.42319711481442</v>
@@ -4893,10 +4893,10 @@
         <v>6.590454258427762</v>
       </c>
       <c r="N9" t="n">
-        <v>6.590454258427762</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="O9" t="n">
-        <v>9.757711402041103</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="P9" t="n">
         <v>12.79699856005391</v>
@@ -4908,7 +4908,7 @@
         <v>12.79699856005391</v>
       </c>
       <c r="S9" t="n">
-        <v>9.565433267111001</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="T9" t="n">
         <v>9.565433267111001</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>546.687476157245</v>
+        <v>373.1878275815397</v>
       </c>
       <c r="C11" t="n">
-        <v>546.687476157245</v>
+        <v>373.1878275815397</v>
       </c>
       <c r="D11" t="n">
-        <v>546.687476157245</v>
+        <v>373.1878275815397</v>
       </c>
       <c r="E11" t="n">
-        <v>459.3802101209971</v>
+        <v>182.7858747338152</v>
       </c>
       <c r="F11" t="n">
-        <v>268.9782572732727</v>
+        <v>182.7858747338152</v>
       </c>
       <c r="G11" t="n">
-        <v>78.57630442554813</v>
+        <v>182.7858747338152</v>
       </c>
       <c r="H11" t="n">
-        <v>78.57630442554813</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I11" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="J11" t="n">
-        <v>115.4328134021288</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K11" t="n">
-        <v>115.4328134021288</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="L11" t="n">
-        <v>162.1536558828889</v>
+        <v>201.6927886515944</v>
       </c>
       <c r="M11" t="n">
-        <v>330.6251572712824</v>
+        <v>282.5546877385416</v>
       </c>
       <c r="N11" t="n">
-        <v>405.9530504069747</v>
+        <v>469.1676417245962</v>
       </c>
       <c r="O11" t="n">
-        <v>592.5660043930294</v>
+        <v>505.0138425485397</v>
       </c>
       <c r="P11" t="n">
-        <v>753.9917332769886</v>
+        <v>666.439571432499</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0894290049694</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="S11" t="n">
-        <v>737.0894290049694</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="T11" t="n">
-        <v>737.0894290049694</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="U11" t="n">
-        <v>737.0894290049694</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="V11" t="n">
-        <v>737.0894290049694</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="W11" t="n">
-        <v>737.0894290049694</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="X11" t="n">
-        <v>737.0894290049694</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="Y11" t="n">
-        <v>546.687476157245</v>
+        <v>563.589780429264</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.5443673638207</v>
+        <v>24.54436736382067</v>
       </c>
       <c r="C12" t="n">
         <v>15.07983466553977</v>
@@ -5121,49 +5121,49 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142013</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097941</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137995</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998541</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188884</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="Q12" t="n">
-        <v>753.9917332769886</v>
+        <v>747.0528889596538</v>
       </c>
       <c r="R12" t="n">
-        <v>753.9917332769886</v>
+        <v>747.0528889596538</v>
       </c>
       <c r="S12" t="n">
-        <v>740.4134230073557</v>
+        <v>556.6509361119295</v>
       </c>
       <c r="T12" t="n">
-        <v>617.6076483421978</v>
+        <v>366.2489832642052</v>
       </c>
       <c r="U12" t="n">
-        <v>557.9310772878333</v>
+        <v>306.5724122098407</v>
       </c>
       <c r="V12" t="n">
-        <v>494.7991007602228</v>
+        <v>199.2483993752392</v>
       </c>
       <c r="W12" t="n">
-        <v>405.3482730592695</v>
+        <v>109.7975716742859</v>
       </c>
       <c r="X12" t="n">
-        <v>214.9463202115451</v>
+        <v>70.23731885973763</v>
       </c>
       <c r="Y12" t="n">
-        <v>24.5443673638207</v>
+        <v>24.54436736382067</v>
       </c>
     </row>
     <row r="13">
@@ -5176,70 +5176,70 @@
         <v>15.07983466553977</v>
       </c>
       <c r="C13" t="n">
-        <v>26.65400701482427</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D13" t="n">
-        <v>26.65400701482427</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E13" t="n">
-        <v>26.65400701482427</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F13" t="n">
-        <v>26.65400701482427</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G13" t="n">
-        <v>26.65400701482427</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H13" t="n">
-        <v>38.85463484824147</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I13" t="n">
-        <v>38.85463484824147</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J13" t="n">
-        <v>38.85463484824147</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K13" t="n">
-        <v>148.8617360219805</v>
+        <v>61.1569560145218</v>
       </c>
       <c r="L13" t="n">
-        <v>212.5590407811546</v>
+        <v>61.1569560145218</v>
       </c>
       <c r="M13" t="n">
-        <v>212.5590407811546</v>
+        <v>212.5590407811544</v>
       </c>
       <c r="N13" t="n">
-        <v>212.5590407811546</v>
+        <v>212.5590407811544</v>
       </c>
       <c r="O13" t="n">
-        <v>351.8217271348926</v>
+        <v>351.8217271348925</v>
       </c>
       <c r="P13" t="n">
-        <v>470.2946957351834</v>
+        <v>470.2946957351833</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426682</v>
+        <v>520.716661142668</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633082</v>
+        <v>495.1795934633081</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3111286015782</v>
+        <v>437.311128601578</v>
       </c>
       <c r="T13" t="n">
-        <v>391.237093957886</v>
+        <v>391.2370939578859</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604135</v>
+        <v>279.6125557604134</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064922</v>
+        <v>211.9754335064921</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117144</v>
+        <v>98.68003660117137</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099494</v>
+        <v>54.4667121009949</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07983466553977</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>570.5225917197782</v>
+        <v>548.1509070829129</v>
       </c>
       <c r="C14" t="n">
-        <v>566.4626640533954</v>
+        <v>430.2145153431304</v>
       </c>
       <c r="D14" t="n">
-        <v>566.4626640533954</v>
+        <v>268.9782572732723</v>
       </c>
       <c r="E14" t="n">
-        <v>376.060711205671</v>
+        <v>78.5763044255481</v>
       </c>
       <c r="F14" t="n">
-        <v>376.060711205671</v>
+        <v>78.5763044255481</v>
       </c>
       <c r="G14" t="n">
-        <v>185.6587583579466</v>
+        <v>78.5763044255481</v>
       </c>
       <c r="H14" t="n">
-        <v>15.07983466553977</v>
+        <v>78.5763044255481</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553977</v>
@@ -5279,49 +5279,49 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K14" t="n">
-        <v>15.07983466553977</v>
+        <v>25.73881038738796</v>
       </c>
       <c r="L14" t="n">
-        <v>201.6927886515945</v>
+        <v>212.3517643734426</v>
       </c>
       <c r="M14" t="n">
-        <v>282.5546877385417</v>
+        <v>293.2136634603897</v>
       </c>
       <c r="N14" t="n">
-        <v>469.1676417245964</v>
+        <v>479.8266174464443</v>
       </c>
       <c r="O14" t="n">
-        <v>505.0138425485399</v>
+        <v>666.439571432499</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4395714324992</v>
+        <v>666.439571432499</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="R14" t="n">
-        <v>753.9917332769886</v>
+        <v>737.0894290049691</v>
       </c>
       <c r="S14" t="n">
-        <v>753.9917332769886</v>
+        <v>737.0894290049691</v>
       </c>
       <c r="T14" t="n">
-        <v>753.9917332769886</v>
+        <v>692.3241590587555</v>
       </c>
       <c r="U14" t="n">
-        <v>753.9917332769886</v>
+        <v>692.3241590587555</v>
       </c>
       <c r="V14" t="n">
-        <v>753.9917332769886</v>
+        <v>548.1509070829129</v>
       </c>
       <c r="W14" t="n">
-        <v>753.9917332769886</v>
+        <v>548.1509070829129</v>
       </c>
       <c r="X14" t="n">
-        <v>570.5225917197782</v>
+        <v>548.1509070829129</v>
       </c>
       <c r="Y14" t="n">
-        <v>570.5225917197782</v>
+        <v>548.1509070829129</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>405.7062379064651</v>
+        <v>24.54436736382067</v>
       </c>
       <c r="C15" t="n">
-        <v>349.4231547830935</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D15" t="n">
-        <v>188.6430385441253</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E15" t="n">
         <v>15.07983466553977</v>
@@ -5361,46 +5361,46 @@
         <v>53.04316068142009</v>
       </c>
       <c r="L15" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097941</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137995</v>
       </c>
       <c r="N15" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998542</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188885</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="Q15" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="R15" t="n">
-        <v>753.9917332769886</v>
+        <v>668.3805641193278</v>
       </c>
       <c r="S15" t="n">
-        <v>740.4134230073558</v>
+        <v>654.802253849695</v>
       </c>
       <c r="T15" t="n">
-        <v>703.2188174998585</v>
+        <v>617.6076483421976</v>
       </c>
       <c r="U15" t="n">
-        <v>643.542246445494</v>
+        <v>557.9310772878332</v>
       </c>
       <c r="V15" t="n">
-        <v>580.4102699178835</v>
+        <v>494.7991007602226</v>
       </c>
       <c r="W15" t="n">
-        <v>490.9594422169303</v>
+        <v>405.3482730592693</v>
       </c>
       <c r="X15" t="n">
-        <v>451.399189402382</v>
+        <v>214.946320211545</v>
       </c>
       <c r="Y15" t="n">
-        <v>405.7062379064651</v>
+        <v>24.54436736382067</v>
       </c>
     </row>
     <row r="16">
@@ -5419,64 +5419,64 @@
         <v>15.07983466553977</v>
       </c>
       <c r="E16" t="n">
-        <v>35.86935526930129</v>
+        <v>51.18723637697417</v>
       </c>
       <c r="F16" t="n">
-        <v>35.86935526930129</v>
+        <v>51.18723637697417</v>
       </c>
       <c r="G16" t="n">
-        <v>45.22236960295753</v>
+        <v>51.18723637697417</v>
       </c>
       <c r="H16" t="n">
-        <v>45.22236960295753</v>
+        <v>63.3878642103914</v>
       </c>
       <c r="I16" t="n">
-        <v>45.22236960295753</v>
+        <v>63.3878642103914</v>
       </c>
       <c r="J16" t="n">
-        <v>102.5519396074148</v>
+        <v>63.3878642103914</v>
       </c>
       <c r="K16" t="n">
-        <v>212.5590407811539</v>
+        <v>173.3949653841304</v>
       </c>
       <c r="L16" t="n">
-        <v>212.5590407811539</v>
+        <v>212.5590407811544</v>
       </c>
       <c r="M16" t="n">
-        <v>212.5590407811539</v>
+        <v>212.5590407811544</v>
       </c>
       <c r="N16" t="n">
-        <v>212.5590407811539</v>
+        <v>212.5590407811544</v>
       </c>
       <c r="O16" t="n">
-        <v>351.8217271348921</v>
+        <v>351.8217271348925</v>
       </c>
       <c r="P16" t="n">
-        <v>470.2946957351829</v>
+        <v>470.2946957351833</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7166611426677</v>
+        <v>520.716661142668</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633078</v>
+        <v>495.1795934633081</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3111286015778</v>
+        <v>437.311128601578</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2370939578857</v>
+        <v>391.2370939578859</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6125557604133</v>
+        <v>279.6125557604134</v>
       </c>
       <c r="V16" t="n">
-        <v>211.975433506492</v>
+        <v>211.9754335064921</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117132</v>
+        <v>98.68003660117137</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099488</v>
+        <v>54.4667121009949</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07983466553977</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961945</v>
+        <v>463.3923242961939</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040789</v>
+        <v>410.1015905040784</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210053</v>
+        <v>369.3697837210049</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718621</v>
+        <v>294.5907522718619</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940551</v>
+        <v>187.7709757940552</v>
       </c>
       <c r="G17" t="n">
         <v>65.15430707116208</v>
@@ -5510,55 +5510,55 @@
         <v>15.07983466553977</v>
       </c>
       <c r="I17" t="n">
-        <v>15.07983466553977</v>
+        <v>46.8920571528275</v>
       </c>
       <c r="J17" t="n">
-        <v>15.07983466553977</v>
+        <v>46.8920571528275</v>
       </c>
       <c r="K17" t="n">
-        <v>15.07983466553977</v>
+        <v>46.8920571528275</v>
       </c>
       <c r="L17" t="n">
-        <v>201.6927886515945</v>
+        <v>233.5050111388821</v>
       </c>
       <c r="M17" t="n">
-        <v>282.5546877385417</v>
+        <v>314.3669102258293</v>
       </c>
       <c r="N17" t="n">
-        <v>357.882580874234</v>
+        <v>389.6948033615216</v>
       </c>
       <c r="O17" t="n">
-        <v>392.1032155669017</v>
+        <v>423.9154380541893</v>
       </c>
       <c r="P17" t="n">
-        <v>578.7161695529564</v>
+        <v>610.5283920402439</v>
       </c>
       <c r="Q17" t="n">
-        <v>578.7161695529564</v>
+        <v>610.5283920402439</v>
       </c>
       <c r="R17" t="n">
-        <v>637.9362055321463</v>
+        <v>610.5283920402439</v>
       </c>
       <c r="S17" t="n">
-        <v>707.1675751369972</v>
+        <v>679.7597616450948</v>
       </c>
       <c r="T17" t="n">
-        <v>707.1675751369972</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879304</v>
+        <v>730.3229325879302</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235037</v>
+        <v>689.4655660235035</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530777</v>
+        <v>626.5008757530773</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122035</v>
+        <v>540.8060308122028</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>315.6486189337961</v>
+        <v>230.1683764065511</v>
       </c>
       <c r="C18" t="n">
-        <v>315.6486189337961</v>
+        <v>40.75610213951478</v>
       </c>
       <c r="D18" t="n">
-        <v>315.6486189337961</v>
+        <v>40.75610213951478</v>
       </c>
       <c r="E18" t="n">
-        <v>142.0854150552106</v>
+        <v>40.75610213951478</v>
       </c>
       <c r="F18" t="n">
-        <v>142.0854150552106</v>
+        <v>40.75610213951478</v>
       </c>
       <c r="G18" t="n">
-        <v>142.0854150552106</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H18" t="n">
         <v>15.07983466553977</v>
@@ -5595,49 +5595,49 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142013</v>
+        <v>53.0431606814201</v>
       </c>
       <c r="L18" t="n">
         <v>170.3760798097942</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137995</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998542</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188885</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="Q18" t="n">
-        <v>753.9917332769886</v>
+        <v>747.052888959654</v>
       </c>
       <c r="R18" t="n">
-        <v>617.9111264193344</v>
+        <v>610.9722821019998</v>
       </c>
       <c r="S18" t="n">
-        <v>617.9111264193344</v>
+        <v>610.9722821019998</v>
       </c>
       <c r="T18" t="n">
-        <v>494.1844718607312</v>
+        <v>420.5703292542754</v>
       </c>
       <c r="U18" t="n">
-        <v>494.1844718607312</v>
+        <v>420.5703292542754</v>
       </c>
       <c r="V18" t="n">
-        <v>494.1844718607312</v>
+        <v>420.5703292542754</v>
       </c>
       <c r="W18" t="n">
-        <v>494.1844718607312</v>
+        <v>420.5703292542754</v>
       </c>
       <c r="X18" t="n">
-        <v>494.1844718607312</v>
+        <v>230.1683764065511</v>
       </c>
       <c r="Y18" t="n">
-        <v>494.1844718607312</v>
+        <v>230.1683764065511</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961948</v>
+        <v>463.3923242961941</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040793</v>
+        <v>410.1015905040787</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210057</v>
+        <v>369.3697837210051</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718626</v>
+        <v>294.5907522718621</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940555</v>
+        <v>187.7709757940552</v>
       </c>
       <c r="G20" t="n">
         <v>65.15430707116208</v>
@@ -5747,55 +5747,55 @@
         <v>15.07983466553977</v>
       </c>
       <c r="I20" t="n">
-        <v>15.07983466553977</v>
+        <v>69.40258427691836</v>
       </c>
       <c r="J20" t="n">
-        <v>15.07983466553977</v>
+        <v>256.015538262973</v>
       </c>
       <c r="K20" t="n">
-        <v>15.07983466553977</v>
+        <v>256.015538262973</v>
       </c>
       <c r="L20" t="n">
-        <v>61.80067714629985</v>
+        <v>302.736380743733</v>
       </c>
       <c r="M20" t="n">
-        <v>248.4136311323545</v>
+        <v>383.5982798306802</v>
       </c>
       <c r="N20" t="n">
-        <v>323.7415242680469</v>
+        <v>458.9261729663725</v>
       </c>
       <c r="O20" t="n">
-        <v>510.3544782541015</v>
+        <v>493.1468076590402</v>
       </c>
       <c r="P20" t="n">
-        <v>696.9674322401562</v>
+        <v>679.7597616450948</v>
       </c>
       <c r="Q20" t="n">
-        <v>753.9917332769886</v>
+        <v>679.7597616450948</v>
       </c>
       <c r="R20" t="n">
-        <v>753.9917332769886</v>
+        <v>679.7597616450948</v>
       </c>
       <c r="S20" t="n">
-        <v>753.9917332769886</v>
+        <v>679.7597616450948</v>
       </c>
       <c r="T20" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879303</v>
+        <v>730.3229325879302</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235037</v>
+        <v>689.4655660235035</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530777</v>
+        <v>626.5008757530775</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122036</v>
+        <v>540.8060308122033</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>237.1072207238857</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="C21" t="n">
-        <v>237.1072207238857</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="D21" t="n">
-        <v>237.1072207238857</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="E21" t="n">
-        <v>237.1072207238857</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="F21" t="n">
-        <v>237.1072207238857</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="G21" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H21" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I21" t="n">
-        <v>68.08505727554241</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J21" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142013</v>
+        <v>53.0431606814201</v>
       </c>
       <c r="L21" t="n">
         <v>170.3760798097942</v>
       </c>
       <c r="M21" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137995</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998542</v>
       </c>
       <c r="O21" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188885</v>
       </c>
       <c r="P21" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="Q21" t="n">
-        <v>753.9917332769886</v>
+        <v>747.052888959654</v>
       </c>
       <c r="R21" t="n">
-        <v>617.9111264193344</v>
+        <v>747.052888959654</v>
       </c>
       <c r="S21" t="n">
-        <v>427.5091735716101</v>
+        <v>747.052888959654</v>
       </c>
       <c r="T21" t="n">
-        <v>427.5091735716101</v>
+        <v>556.6509361119296</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1072207238857</v>
+        <v>534.2647156670951</v>
       </c>
       <c r="V21" t="n">
-        <v>237.1072207238857</v>
+        <v>534.2647156670951</v>
       </c>
       <c r="W21" t="n">
-        <v>237.1072207238857</v>
+        <v>534.2647156670951</v>
       </c>
       <c r="X21" t="n">
-        <v>237.1072207238857</v>
+        <v>534.2647156670951</v>
       </c>
       <c r="Y21" t="n">
-        <v>237.1072207238857</v>
+        <v>343.8627628193707</v>
       </c>
     </row>
     <row r="22">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961944</v>
+        <v>463.3923242961939</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040789</v>
+        <v>410.1015905040784</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210053</v>
+        <v>369.3697837210051</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718624</v>
+        <v>294.5907522718618</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940554</v>
+        <v>187.7709757940548</v>
       </c>
       <c r="G23" t="n">
         <v>65.15430707116208</v>
@@ -5984,22 +5984,22 @@
         <v>15.07983466553977</v>
       </c>
       <c r="I23" t="n">
-        <v>70.95335735993311</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J23" t="n">
-        <v>257.5663113459877</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K23" t="n">
-        <v>415.3199995917497</v>
+        <v>45.891564548893</v>
       </c>
       <c r="L23" t="n">
-        <v>462.0408420725098</v>
+        <v>92.61240702965304</v>
       </c>
       <c r="M23" t="n">
-        <v>542.902741159457</v>
+        <v>279.2253610157077</v>
       </c>
       <c r="N23" t="n">
-        <v>618.2306342951493</v>
+        <v>465.8383150017623</v>
       </c>
       <c r="O23" t="n">
         <v>652.451268987817</v>
@@ -6011,28 +6011,28 @@
         <v>652.451268987817</v>
       </c>
       <c r="R23" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="S23" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="T23" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879304</v>
+        <v>730.3229325879298</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235037</v>
+        <v>689.4655660235031</v>
       </c>
       <c r="X23" t="n">
-        <v>626.5008757530777</v>
+        <v>626.5008757530771</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122035</v>
+        <v>540.8060308122028</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15.07983466553977</v>
+        <v>188.6430385441253</v>
       </c>
       <c r="C24" t="n">
-        <v>15.07983466553977</v>
+        <v>188.6430385441253</v>
       </c>
       <c r="D24" t="n">
-        <v>15.07983466553977</v>
+        <v>188.6430385441253</v>
       </c>
       <c r="E24" t="n">
         <v>15.07983466553977</v>
@@ -6069,13 +6069,13 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142013</v>
+        <v>53.0431606814201</v>
       </c>
       <c r="L24" t="n">
         <v>170.3760798097942</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137995</v>
       </c>
       <c r="N24" t="n">
         <v>538.6656803998542</v>
@@ -6087,31 +6087,31 @@
         <v>753.9917332769884</v>
       </c>
       <c r="Q24" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="R24" t="n">
-        <v>617.9111264193343</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="S24" t="n">
-        <v>617.9111264193343</v>
+        <v>747.9827971665092</v>
       </c>
       <c r="T24" t="n">
-        <v>586.2856932087129</v>
+        <v>557.5808443187848</v>
       </c>
       <c r="U24" t="n">
-        <v>395.8837403609886</v>
+        <v>557.5808443187848</v>
       </c>
       <c r="V24" t="n">
-        <v>205.4817875132642</v>
+        <v>557.5808443187848</v>
       </c>
       <c r="W24" t="n">
-        <v>15.07983466553977</v>
+        <v>557.5808443187848</v>
       </c>
       <c r="X24" t="n">
-        <v>15.07983466553977</v>
+        <v>367.1788914710604</v>
       </c>
       <c r="Y24" t="n">
-        <v>15.07983466553977</v>
+        <v>367.1788914710604</v>
       </c>
     </row>
     <row r="25">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.89842248961</v>
+        <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874106</v>
+        <v>882.7966579874111</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942527</v>
+        <v>757.2538204942532</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350254</v>
+        <v>597.6637583350257</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471339</v>
+        <v>406.0329511471343</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141568</v>
+        <v>198.6052517141569</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845011</v>
+        <v>63.71974859845028</v>
       </c>
       <c r="I26" t="n">
         <v>35.91669941514207</v>
       </c>
       <c r="J26" t="n">
-        <v>171.252799658955</v>
+        <v>171.2527996589549</v>
       </c>
       <c r="K26" t="n">
-        <v>375.942782452878</v>
+        <v>375.9427824528779</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0135279523992</v>
+        <v>634.0135279523997</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581074</v>
+        <v>926.2253300581078</v>
       </c>
       <c r="N26" t="n">
         <v>1212.903126212561</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.473663923989</v>
+        <v>1458.47366392399</v>
       </c>
       <c r="P26" t="n">
         <v>1654.882514315172</v>
@@ -6251,22 +6251,22 @@
         <v>1795.834970757104</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.660986883924</v>
+        <v>1781.660986883925</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.589137514411</v>
+        <v>1772.589137514412</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020825</v>
+        <v>1735.552985020827</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.073153621683</v>
+        <v>1627.073153621684</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347172</v>
+        <v>1501.404756347173</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366662</v>
+        <v>1353.629035366663</v>
       </c>
       <c r="Y26" t="n">
         <v>1183.123159715704</v>
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196.344415697898</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C27" t="n">
-        <v>196.344415697898</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D27" t="n">
-        <v>196.344415697898</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E27" t="n">
-        <v>196.344415697898</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F27" t="n">
         <v>35.91669941514207</v>
@@ -6306,7 +6306,7 @@
         <v>35.91669941514207</v>
       </c>
       <c r="K27" t="n">
-        <v>73.88002543102243</v>
+        <v>73.8800254310224</v>
       </c>
       <c r="L27" t="n">
         <v>191.2129445593965</v>
@@ -6327,28 +6327,28 @@
         <v>793.1206204512952</v>
       </c>
       <c r="R27" t="n">
-        <v>793.1206204512952</v>
+        <v>657.040013593641</v>
       </c>
       <c r="S27" t="n">
-        <v>793.1206204512952</v>
+        <v>587.7456853467431</v>
       </c>
       <c r="T27" t="n">
-        <v>791.619435520498</v>
+        <v>370.6033382704903</v>
       </c>
       <c r="U27" t="n">
-        <v>551.9951228973781</v>
+        <v>346.620187792826</v>
       </c>
       <c r="V27" t="n">
-        <v>524.5565669464678</v>
+        <v>103.5404696964601</v>
       </c>
       <c r="W27" t="n">
-        <v>255.1579976767591</v>
+        <v>49.78306257220697</v>
       </c>
       <c r="X27" t="n">
-        <v>251.2911654389111</v>
+        <v>45.91623033435886</v>
       </c>
       <c r="Y27" t="n">
-        <v>196.344415697898</v>
+        <v>35.91669941514207</v>
       </c>
     </row>
     <row r="28">
@@ -6385,46 +6385,46 @@
         <v>35.91669941514207</v>
       </c>
       <c r="K28" t="n">
-        <v>35.91669941514207</v>
+        <v>180.9069220961049</v>
       </c>
       <c r="L28" t="n">
-        <v>35.91669941514207</v>
+        <v>180.9069220961049</v>
       </c>
       <c r="M28" t="n">
-        <v>35.91669941514207</v>
+        <v>180.9069220961049</v>
       </c>
       <c r="N28" t="n">
-        <v>230.9116466383145</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="O28" t="n">
-        <v>230.9116466383145</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="P28" t="n">
-        <v>266.162514176009</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.162514176009</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="R28" t="n">
-        <v>266.162514176009</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909792</v>
+        <v>243.9874698909793</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239872</v>
+        <v>233.6068558239874</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6757382032149</v>
+        <v>157.675738203215</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7320365259938</v>
+        <v>125.7320365259939</v>
       </c>
       <c r="W28" t="n">
-        <v>48.1300601973733</v>
+        <v>48.13006019737335</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389702</v>
+        <v>39.61015627389705</v>
       </c>
       <c r="Y28" t="n">
         <v>35.91669941514207</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1020.89842248961</v>
+        <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874104</v>
+        <v>882.7966579874112</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942525</v>
+        <v>757.2538204942533</v>
       </c>
       <c r="E29" t="n">
-        <v>597.663758335025</v>
+        <v>597.6637583350259</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471335</v>
+        <v>406.0329511471346</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141562</v>
+        <v>198.6052517141572</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845024</v>
+        <v>63.7197485984502</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J29" t="n">
         <v>171.2527996589549</v>
@@ -6470,10 +6470,10 @@
         <v>634.0135279523989</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581071</v>
+        <v>926.2253300581074</v>
       </c>
       <c r="N29" t="n">
-        <v>1212.90312621256</v>
+        <v>1212.903126212561</v>
       </c>
       <c r="O29" t="n">
         <v>1458.473663923989</v>
@@ -6497,10 +6497,10 @@
         <v>1735.552985020826</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.073153621683</v>
+        <v>1627.073153621684</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.404756347172</v>
+        <v>1501.404756347173</v>
       </c>
       <c r="X29" t="n">
         <v>1353.629035366662</v>
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>40.82673836397144</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C30" t="n">
-        <v>40.82673836397144</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D30" t="n">
-        <v>40.82673836397144</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E30" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F30" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G30" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H30" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K30" t="n">
-        <v>73.88002543102242</v>
+        <v>73.8800254310224</v>
       </c>
       <c r="L30" t="n">
         <v>191.2129445593965</v>
@@ -6567,25 +6567,25 @@
         <v>786.1817761339607</v>
       </c>
       <c r="S30" t="n">
-        <v>592.6557242955726</v>
+        <v>786.1817761339607</v>
       </c>
       <c r="T30" t="n">
-        <v>591.1545393647752</v>
+        <v>569.0394290577079</v>
       </c>
       <c r="U30" t="n">
-        <v>567.171388887111</v>
+        <v>545.0562785800437</v>
       </c>
       <c r="V30" t="n">
-        <v>324.0916707907451</v>
+        <v>319.1816318419156</v>
       </c>
       <c r="W30" t="n">
-        <v>54.6931015210364</v>
+        <v>265.4242247176625</v>
       </c>
       <c r="X30" t="n">
-        <v>50.82626928318827</v>
+        <v>261.5573924798144</v>
       </c>
       <c r="Y30" t="n">
-        <v>40.82673836397144</v>
+        <v>35.91669941514207</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C31" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D31" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E31" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F31" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G31" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H31" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I31" t="n">
-        <v>35.91669941514206</v>
+        <v>84.06216404661768</v>
       </c>
       <c r="J31" t="n">
-        <v>128.2293909268232</v>
+        <v>84.06216404661768</v>
       </c>
       <c r="K31" t="n">
-        <v>266.1625141760094</v>
+        <v>84.06216404661768</v>
       </c>
       <c r="L31" t="n">
-        <v>266.1625141760094</v>
+        <v>263.5817689796816</v>
       </c>
       <c r="M31" t="n">
-        <v>266.1625141760094</v>
+        <v>263.5817689796816</v>
       </c>
       <c r="N31" t="n">
-        <v>266.1625141760094</v>
+        <v>263.5817689796816</v>
       </c>
       <c r="O31" t="n">
-        <v>266.1625141760094</v>
+        <v>263.5817689796816</v>
       </c>
       <c r="P31" t="n">
-        <v>266.1625141760094</v>
+        <v>266.162514176009</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1625141760094</v>
+        <v>266.162514176009</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1625141760094</v>
+        <v>266.162514176009</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909795</v>
+        <v>243.9874698909792</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239875</v>
+        <v>233.6068558239872</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6757382032151</v>
+        <v>157.6757382032149</v>
       </c>
       <c r="V31" t="n">
-        <v>125.732036525994</v>
+        <v>125.7320365259938</v>
       </c>
       <c r="W31" t="n">
-        <v>48.1300601973734</v>
+        <v>48.1300601973733</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389707</v>
+        <v>39.61015627389702</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
     </row>
     <row r="32">
@@ -6677,25 +6677,25 @@
         <v>1014.789988510278</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806682</v>
+        <v>877.5242945806687</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601005</v>
+        <v>752.817527660101</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734632</v>
+        <v>594.0635360734636</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581619</v>
+        <v>403.2687994581623</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977748</v>
+        <v>196.6771705977753</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465901</v>
+        <v>62.62773805465902</v>
       </c>
       <c r="I32" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="J32" t="n">
         <v>171.8162924559494</v>
@@ -6707,13 +6707,13 @@
         <v>636.2158862857846</v>
       </c>
       <c r="M32" t="n">
-        <v>929.2471211596883</v>
+        <v>909.3311676570754</v>
       </c>
       <c r="N32" t="n">
-        <v>1216.744350082337</v>
+        <v>1196.828396579724</v>
       </c>
       <c r="O32" t="n">
-        <v>1443.218367059348</v>
+        <v>1443.218367059349</v>
       </c>
       <c r="P32" t="n">
         <v>1640.446650218727</v>
@@ -6734,16 +6734,16 @@
         <v>1725.264198178543</v>
       </c>
       <c r="V32" t="n">
-        <v>1617.62043735199</v>
+        <v>1617.620437351991</v>
       </c>
       <c r="W32" t="n">
-        <v>1492.788110650069</v>
+        <v>1492.78811065007</v>
       </c>
       <c r="X32" t="n">
-        <v>1345.848460242149</v>
+        <v>1345.84846024215</v>
       </c>
       <c r="Y32" t="n">
-        <v>1176.178655163781</v>
+        <v>1176.178655163782</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>131.2505508608569</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="C33" t="n">
-        <v>131.2505508608569</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="D33" t="n">
-        <v>131.2505508608569</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="E33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="F33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="G33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="H33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="I33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="J33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="K33" t="n">
         <v>73.62408545982132</v>
@@ -6786,7 +6786,7 @@
         <v>190.9570045881954</v>
       </c>
       <c r="M33" t="n">
-        <v>372.6336511922007</v>
+        <v>372.6336511922008</v>
       </c>
       <c r="N33" t="n">
         <v>577.5386276029599</v>
@@ -6801,28 +6801,28 @@
         <v>792.8646804800941</v>
       </c>
       <c r="R33" t="n">
-        <v>656.7840736224399</v>
+        <v>792.8646804800941</v>
       </c>
       <c r="S33" t="n">
-        <v>463.2580217840517</v>
+        <v>599.3386286417059</v>
       </c>
       <c r="T33" t="n">
-        <v>462.5929074258446</v>
+        <v>382.1962815654531</v>
       </c>
       <c r="U33" t="n">
-        <v>222.9685948027248</v>
+        <v>359.049201660379</v>
       </c>
       <c r="V33" t="n">
-        <v>196.3661094244046</v>
+        <v>115.969483564013</v>
       </c>
       <c r="W33" t="n">
-        <v>143.4447728727416</v>
+        <v>47.8549814558256</v>
       </c>
       <c r="X33" t="n">
-        <v>140.4140112074836</v>
+        <v>44.82421979056765</v>
       </c>
       <c r="Y33" t="n">
-        <v>131.2505508608569</v>
+        <v>35.66075944394099</v>
       </c>
     </row>
     <row r="34">
@@ -6832,49 +6832,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="C34" t="n">
-        <v>35.66075944394098</v>
+        <v>51.19465601424187</v>
       </c>
       <c r="D34" t="n">
-        <v>35.66075944394098</v>
+        <v>51.19465601424187</v>
       </c>
       <c r="E34" t="n">
-        <v>35.66075944394098</v>
+        <v>51.19465601424187</v>
       </c>
       <c r="F34" t="n">
-        <v>35.66075944394098</v>
+        <v>125.8263784049363</v>
       </c>
       <c r="G34" t="n">
-        <v>72.84944115462514</v>
+        <v>125.8263784049363</v>
       </c>
       <c r="H34" t="n">
-        <v>72.84944115462514</v>
+        <v>173.8295605137729</v>
       </c>
       <c r="I34" t="n">
-        <v>72.84944115462514</v>
+        <v>173.8295605137729</v>
       </c>
       <c r="J34" t="n">
-        <v>72.84944115462514</v>
+        <v>173.8295605137729</v>
       </c>
       <c r="K34" t="n">
-        <v>72.84944115462514</v>
+        <v>173.8295605137729</v>
       </c>
       <c r="L34" t="n">
-        <v>72.84944115462514</v>
+        <v>173.8295605137729</v>
       </c>
       <c r="M34" t="n">
-        <v>260.0540801966771</v>
+        <v>173.8295605137729</v>
       </c>
       <c r="N34" t="n">
-        <v>260.0540801966771</v>
+        <v>173.8295605137729</v>
       </c>
       <c r="O34" t="n">
-        <v>260.0540801966771</v>
+        <v>173.8295605137729</v>
       </c>
       <c r="P34" t="n">
-        <v>260.0540801966771</v>
+        <v>173.8295605137729</v>
       </c>
       <c r="Q34" t="n">
         <v>260.0540801966771</v>
@@ -6895,13 +6895,13 @@
         <v>122.9678848370224</v>
       </c>
       <c r="W34" t="n">
-        <v>46.20197908099198</v>
+        <v>46.20197908099199</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010582</v>
+        <v>38.51814573010583</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0190675361092</v>
+        <v>623.0190675361097</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0833815513515</v>
+        <v>544.083381551352</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756359</v>
+        <v>477.7066225756364</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2826389338506</v>
+        <v>377.2826389338511</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8179102634017</v>
+        <v>244.8179102634022</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786677</v>
+        <v>96.55628934786678</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I35" t="n">
-        <v>20.83686474960229</v>
+        <v>51.57576979998703</v>
       </c>
       <c r="J35" t="n">
-        <v>214.1616385483602</v>
+        <v>225.5939968952957</v>
       </c>
       <c r="K35" t="n">
-        <v>472.0178398246885</v>
+        <v>225.5939968952957</v>
       </c>
       <c r="L35" t="n">
-        <v>606.1077034851639</v>
+        <v>272.3148393760557</v>
       </c>
       <c r="M35" t="n">
-        <v>686.9696025721111</v>
+        <v>353.1767384630029</v>
       </c>
       <c r="N35" t="n">
-        <v>762.2974957078034</v>
+        <v>611.0329397393314</v>
       </c>
       <c r="O35" t="n">
-        <v>1020.153696984132</v>
+        <v>645.253574431999</v>
       </c>
       <c r="P35" t="n">
-        <v>1020.153696984132</v>
+        <v>899.6510983781271</v>
       </c>
       <c r="Q35" t="n">
-        <v>1020.153696984132</v>
+        <v>899.6510983781271</v>
       </c>
       <c r="R35" t="n">
-        <v>1020.153696984132</v>
+        <v>976.0569450232899</v>
       </c>
       <c r="S35" t="n">
         <v>1020.153696984132</v>
@@ -6971,16 +6971,16 @@
         <v>1041.843237480115</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984138</v>
+        <v>992.5294845984142</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413449</v>
+        <v>926.0271658413453</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782768</v>
+        <v>837.4175233782772</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447604</v>
+        <v>726.0777262447608</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="C36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="D36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="E36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K36" t="n">
-        <v>58.80019076548262</v>
+        <v>58.80019076548264</v>
       </c>
       <c r="L36" t="n">
         <v>176.1331098938567</v>
@@ -7035,31 +7035,31 @@
         <v>778.0407857857554</v>
       </c>
       <c r="Q36" t="n">
-        <v>778.0407857857554</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="R36" t="n">
-        <v>778.0407857857554</v>
+        <v>717.078955847503</v>
       </c>
       <c r="S36" t="n">
-        <v>740.6952510853675</v>
+        <v>523.5529040091149</v>
       </c>
       <c r="T36" t="n">
-        <v>523.5529040091147</v>
+        <v>523.5529040091149</v>
       </c>
       <c r="U36" t="n">
-        <v>283.9285913859949</v>
+        <v>283.928591385995</v>
       </c>
       <c r="V36" t="n">
-        <v>283.9285913859949</v>
+        <v>283.928591385995</v>
       </c>
       <c r="W36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="X36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="L37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="M37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="N37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="O37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="P37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078069</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078069</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
     </row>
     <row r="38">
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0190675361098</v>
+        <v>623.0190675361102</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0833815513521</v>
+        <v>544.0833815513525</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756363</v>
+        <v>477.7066225756367</v>
       </c>
       <c r="E38" t="n">
-        <v>377.282638933851</v>
+        <v>377.2826389338514</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8179102634018</v>
+        <v>244.8179102634022</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55628934786677</v>
+        <v>96.55628934786678</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I38" t="n">
-        <v>20.83686474960229</v>
+        <v>51.57576979998703</v>
       </c>
       <c r="J38" t="n">
-        <v>20.83686474960229</v>
+        <v>51.57576979998703</v>
       </c>
       <c r="K38" t="n">
-        <v>278.6930660259306</v>
+        <v>51.57576979998703</v>
       </c>
       <c r="L38" t="n">
-        <v>536.5492673022591</v>
+        <v>218.1921373794049</v>
       </c>
       <c r="M38" t="n">
-        <v>628.7998317177415</v>
+        <v>476.0483386557334</v>
       </c>
       <c r="N38" t="n">
-        <v>704.1277248534338</v>
+        <v>733.9045399320619</v>
       </c>
       <c r="O38" t="n">
-        <v>738.3483595461015</v>
+        <v>768.1251746247295</v>
       </c>
       <c r="P38" t="n">
-        <v>992.7458834922296</v>
+        <v>768.1251746247295</v>
       </c>
       <c r="Q38" t="n">
-        <v>992.7458834922296</v>
+        <v>948.6491315313878</v>
       </c>
       <c r="R38" t="n">
-        <v>992.7458834922296</v>
+        <v>948.6491315313878</v>
       </c>
       <c r="S38" t="n">
-        <v>992.7458834922296</v>
+        <v>992.7458834922301</v>
       </c>
       <c r="T38" t="n">
         <v>1041.843237480115</v>
@@ -7208,16 +7208,16 @@
         <v>1041.843237480115</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5294845984142</v>
+        <v>992.5294845984147</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0271658413453</v>
+        <v>926.0271658413458</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4175233782772</v>
+        <v>837.4175233782777</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0777262447609</v>
+        <v>726.0777262447614</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>55.81675214293927</v>
+        <v>210.2491390166386</v>
       </c>
       <c r="C39" t="n">
-        <v>55.81675214293927</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="D39" t="n">
-        <v>55.81675214293927</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="E39" t="n">
-        <v>55.81675214293927</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F39" t="n">
-        <v>55.81675214293927</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G39" t="n">
-        <v>55.81675214293927</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H39" t="n">
-        <v>55.81675214293927</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K39" t="n">
-        <v>58.80019076548262</v>
+        <v>58.80019076548264</v>
       </c>
       <c r="L39" t="n">
         <v>176.1331098938567</v>
@@ -7272,31 +7272,31 @@
         <v>778.0407857857554</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.0407857857554</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="R39" t="n">
-        <v>778.0407857857554</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="S39" t="n">
-        <v>778.0407857857554</v>
+        <v>712.9651782761512</v>
       </c>
       <c r="T39" t="n">
-        <v>778.0407857857554</v>
+        <v>712.9651782761512</v>
       </c>
       <c r="U39" t="n">
-        <v>538.4164731626355</v>
+        <v>473.3408656530313</v>
       </c>
       <c r="V39" t="n">
-        <v>538.4164731626355</v>
+        <v>473.3408656530313</v>
       </c>
       <c r="W39" t="n">
-        <v>275.3247465262429</v>
+        <v>210.2491390166386</v>
       </c>
       <c r="X39" t="n">
-        <v>55.81675214293927</v>
+        <v>210.2491390166386</v>
       </c>
       <c r="Y39" t="n">
-        <v>55.81675214293927</v>
+        <v>210.2491390166386</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="L40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="M40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="N40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="O40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="P40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078069</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078069</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
     </row>
     <row r="41">
@@ -7385,55 +7385,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.4263542753163</v>
+        <v>818.4263542753167</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1276389564246</v>
+        <v>708.127638956425</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3878506465749</v>
+        <v>610.3878506465753</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6008376706554</v>
+        <v>478.6008376706559</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7730796660722</v>
+        <v>314.7730796660726</v>
       </c>
       <c r="G41" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J41" t="n">
-        <v>28.06597548400536</v>
+        <v>190.6518442323785</v>
       </c>
       <c r="K41" t="n">
-        <v>251.4991004732631</v>
+        <v>372.9852527915014</v>
       </c>
       <c r="L41" t="n">
-        <v>536.8196144773444</v>
+        <v>658.3057667955827</v>
       </c>
       <c r="M41" t="n">
-        <v>617.6815135642915</v>
+        <v>739.1676658825299</v>
       </c>
       <c r="N41" t="n">
-        <v>693.0094066999839</v>
+        <v>1053.095230541544</v>
       </c>
       <c r="O41" t="n">
-        <v>965.8297129159728</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="P41" t="n">
-        <v>1189.488331811716</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="Q41" t="n">
-        <v>1339.273383667989</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="R41" t="n">
-        <v>1384.940325262768</v>
+        <v>1371.582478352311</v>
       </c>
       <c r="S41" t="n">
         <v>1384.940325262768</v>
@@ -7442,7 +7442,7 @@
         <v>1403.298774200268</v>
       </c>
       <c r="U41" t="n">
-        <v>1394.065670889991</v>
+        <v>1394.065670889992</v>
       </c>
       <c r="V41" t="n">
         <v>1313.388888674157</v>
@@ -7454,7 +7454,7 @@
         <v>1095.550868785752</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8480423181014</v>
+        <v>952.8480423181019</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="C42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="D42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02930149988569</v>
+        <v>66.0293014998857</v>
       </c>
       <c r="L42" t="n">
-        <v>183.3622206282597</v>
+        <v>183.3622206282598</v>
       </c>
       <c r="M42" t="n">
         <v>365.0388672322651</v>
@@ -7509,31 +7509,31 @@
         <v>785.2698965201585</v>
       </c>
       <c r="Q42" t="n">
-        <v>778.331052202824</v>
+        <v>785.2698965201585</v>
       </c>
       <c r="R42" t="n">
-        <v>778.331052202824</v>
+        <v>649.1892896625043</v>
       </c>
       <c r="S42" t="n">
-        <v>584.8050003644358</v>
+        <v>649.1892896625043</v>
       </c>
       <c r="T42" t="n">
-        <v>513.1526404313738</v>
+        <v>432.0469425862515</v>
       </c>
       <c r="U42" t="n">
-        <v>273.528327808254</v>
+        <v>192.4226299631316</v>
       </c>
       <c r="V42" t="n">
-        <v>273.528327808254</v>
+        <v>192.4226299631316</v>
       </c>
       <c r="W42" t="n">
-        <v>247.573969867309</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="X42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
     </row>
     <row r="43">
@@ -7543,55 +7543,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="H43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="L43" t="n">
-        <v>124.6176159598924</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="M43" t="n">
-        <v>124.6176159598924</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="N43" t="n">
-        <v>124.6176159598924</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="O43" t="n">
-        <v>124.6176159598924</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="P43" t="n">
-        <v>124.6176159598924</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="Q43" t="n">
-        <v>124.6176159598924</v>
+        <v>130.133623560695</v>
       </c>
       <c r="R43" t="n">
-        <v>124.6176159598924</v>
+        <v>130.133623560695</v>
       </c>
       <c r="S43" t="n">
         <v>130.133623560695</v>
@@ -7600,19 +7600,19 @@
         <v>130.133623560695</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00555512323076</v>
+        <v>82.00555512323078</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86490262931777</v>
+        <v>77.86490262931778</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4263542753172</v>
+        <v>818.426354275317</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564255</v>
+        <v>708.1276389564252</v>
       </c>
       <c r="D44" t="n">
         <v>610.3878506465755</v>
@@ -7637,43 +7637,43 @@
         <v>314.7730796660726</v>
       </c>
       <c r="G44" t="n">
-        <v>135.1484294164038</v>
+        <v>135.1484294164039</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J44" t="n">
-        <v>190.6518442323786</v>
+        <v>190.6518442323785</v>
       </c>
       <c r="K44" t="n">
-        <v>422.5915955308619</v>
+        <v>422.5915955308618</v>
       </c>
       <c r="L44" t="n">
-        <v>707.9121095349433</v>
+        <v>707.9121095349432</v>
       </c>
       <c r="M44" t="n">
-        <v>892.0076760818555</v>
+        <v>1027.373680145212</v>
       </c>
       <c r="N44" t="n">
-        <v>967.3355692175478</v>
+        <v>1102.701573280904</v>
       </c>
       <c r="O44" t="n">
-        <v>1240.155875433537</v>
+        <v>1136.922207973572</v>
       </c>
       <c r="P44" t="n">
-        <v>1240.155875433537</v>
+        <v>1360.580826869315</v>
       </c>
       <c r="Q44" t="n">
-        <v>1389.94092728981</v>
+        <v>1360.580826869315</v>
       </c>
       <c r="R44" t="n">
-        <v>1389.94092728981</v>
+        <v>1371.582478352311</v>
       </c>
       <c r="S44" t="n">
-        <v>1403.298774200268</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="T44" t="n">
         <v>1403.298774200268</v>
@@ -7691,7 +7691,7 @@
         <v>1095.550868785753</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8480423181023</v>
+        <v>952.8480423181021</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="C45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="D45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K45" t="n">
         <v>66.0293014998857</v>
@@ -7737,40 +7737,40 @@
         <v>365.0388672322651</v>
       </c>
       <c r="N45" t="n">
-        <v>569.9438436430244</v>
+        <v>569.9438436430243</v>
       </c>
       <c r="O45" t="n">
-        <v>701.6447832620587</v>
+        <v>701.6447832620586</v>
       </c>
       <c r="P45" t="n">
-        <v>785.2698965201586</v>
+        <v>785.2698965201585</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.2698965201586</v>
+        <v>785.2698965201585</v>
       </c>
       <c r="R45" t="n">
-        <v>785.2698965201586</v>
+        <v>649.1892896625043</v>
       </c>
       <c r="S45" t="n">
-        <v>785.2698965201586</v>
+        <v>649.1892896625043</v>
       </c>
       <c r="T45" t="n">
-        <v>785.2698965201586</v>
+        <v>432.0469425862515</v>
       </c>
       <c r="U45" t="n">
-        <v>545.6455838970387</v>
+        <v>297.4645447537141</v>
       </c>
       <c r="V45" t="n">
-        <v>302.5658658006728</v>
+        <v>297.4645447537141</v>
       </c>
       <c r="W45" t="n">
-        <v>276.6115078597278</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="X45" t="n">
-        <v>57.10351347642415</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="L46" t="n">
-        <v>130.1336235606949</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="M46" t="n">
-        <v>130.1336235606949</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="N46" t="n">
-        <v>130.1336235606949</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="O46" t="n">
-        <v>130.1336235606949</v>
+        <v>87.41360598064897</v>
       </c>
       <c r="P46" t="n">
-        <v>130.1336235606949</v>
+        <v>87.41360598064897</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.1336235606949</v>
+        <v>87.41360598064897</v>
       </c>
       <c r="R46" t="n">
-        <v>130.1336235606949</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="S46" t="n">
-        <v>130.1336235606949</v>
+        <v>130.133623560695</v>
       </c>
       <c r="T46" t="n">
-        <v>130.1336235606949</v>
+        <v>130.133623560695</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00555512323071</v>
+        <v>82.00555512323078</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86490262931774</v>
+        <v>77.86490262931778</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
     </row>
   </sheetData>
@@ -8532,22 +8532,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>171.3658051887314</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>172.23559297146</v>
       </c>
       <c r="M9" t="n">
         <v>176.6027710248758</v>
       </c>
       <c r="N9" t="n">
-        <v>160.2368887416667</v>
+        <v>163.3068757699624</v>
       </c>
       <c r="O9" t="n">
-        <v>177.1666678622357</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
-        <v>166.5187640737787</v>
+        <v>166.6480266854964</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8775,10 +8775,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>301.77688131</v>
+        <v>301.7768813099999</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1370682466385</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9249,7 +9249,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>301.7768813100001</v>
+        <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
         <v>292.1370682466383</v>
@@ -9489,7 +9489,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>292.1370682466385</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.9389762247655</v>
+        <v>7.44104290551843</v>
       </c>
       <c r="C11" t="n">
         <v>172.057233228111</v>
@@ -23264,19 +23264,19 @@
         <v>159.6238954891595</v>
       </c>
       <c r="E11" t="n">
-        <v>106.896454532683</v>
+        <v>4.832714589321256</v>
       </c>
       <c r="F11" t="n">
-        <v>36.55305216769852</v>
+        <v>225.0509854869456</v>
       </c>
       <c r="G11" t="n">
-        <v>52.19197549033359</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8731344554828</v>
+        <v>2.844154787890083</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.86150506240824</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23303,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.73328122929904</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538038</v>
+        <v>49.36873040538036</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675145</v>
+        <v>44.31761724675142</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958195</v>
+        <v>72.00227733958192</v>
       </c>
       <c r="V11" t="n">
         <v>142.7315194560842</v>
@@ -23324,7 +23324,7 @@
         <v>181.6344501416383</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.63936994613493</v>
+        <v>15.63936994613499</v>
       </c>
     </row>
     <row r="12">
@@ -23495,25 +23495,25 @@
         <v>195.9389762247655</v>
       </c>
       <c r="C14" t="n">
-        <v>168.0379048383921</v>
+        <v>55.30020540572642</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6238954891594</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>4.832714589321142</v>
+        <v>4.832714589321256</v>
       </c>
       <c r="F14" t="n">
         <v>225.0509854869456</v>
       </c>
       <c r="G14" t="n">
-        <v>52.19197549033353</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.8731344554828</v>
       </c>
       <c r="I14" t="n">
-        <v>62.8615050624082</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.733281229299</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538033</v>
+        <v>49.36873040538036</v>
       </c>
       <c r="T14" t="n">
-        <v>44.3176172467514</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958189</v>
+        <v>72.00227733958192</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7315194560842</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.748199672699</v>
+        <v>159.7481996726991</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.6344501416383</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.137303265382</v>
+        <v>204.1373032653821</v>
       </c>
     </row>
     <row r="15">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>198434.6989147035</v>
+        <v>198434.6989147034</v>
       </c>
       <c r="C2" t="n">
-        <v>198434.6989147035</v>
+        <v>198434.6989147034</v>
       </c>
       <c r="D2" t="n">
         <v>198549.2960368087</v>
@@ -26326,7 +26326,7 @@
         <v>170940.4714685552</v>
       </c>
       <c r="G2" t="n">
-        <v>198836.6734931706</v>
+        <v>198836.6734931705</v>
       </c>
       <c r="H2" t="n">
         <v>198836.6734931706</v>
@@ -26335,22 +26335,22 @@
         <v>198836.6734931705</v>
       </c>
       <c r="J2" t="n">
+        <v>198836.6734931706</v>
+      </c>
+      <c r="K2" t="n">
+        <v>198836.6734931706</v>
+      </c>
+      <c r="L2" t="n">
+        <v>198836.6734931704</v>
+      </c>
+      <c r="M2" t="n">
         <v>198836.6734931705</v>
       </c>
-      <c r="K2" t="n">
-        <v>198836.6734931707</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>198836.6734931705</v>
       </c>
-      <c r="M2" t="n">
-        <v>198836.6734931706</v>
-      </c>
-      <c r="N2" t="n">
-        <v>198836.6734931706</v>
-      </c>
       <c r="O2" t="n">
-        <v>198836.6734931706</v>
+        <v>198836.6734931705</v>
       </c>
       <c r="P2" t="n">
         <v>198836.6734931706</v>
@@ -26372,13 +26372,13 @@
         <v>993.7829156773863</v>
       </c>
       <c r="E3" t="n">
-        <v>279126.1151787141</v>
+        <v>279126.115178714</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913329</v>
+        <v>95439.52541913331</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.6933126247</v>
+        <v>96101.69331262469</v>
       </c>
       <c r="M3" t="n">
         <v>46197.3662923228</v>
@@ -26427,31 +26427,31 @@
         <v>307823.2566717783</v>
       </c>
       <c r="F4" t="n">
-        <v>307823.2566717784</v>
+        <v>307823.2566717783</v>
       </c>
       <c r="G4" t="n">
         <v>378431.1247150002</v>
       </c>
       <c r="H4" t="n">
-        <v>378431.1247150002</v>
+        <v>378431.1247150003</v>
       </c>
       <c r="I4" t="n">
-        <v>378431.1247150002</v>
+        <v>378431.1247150003</v>
       </c>
       <c r="J4" t="n">
         <v>379258.4930688672</v>
       </c>
       <c r="K4" t="n">
-        <v>379258.4930688671</v>
+        <v>379258.4930688672</v>
       </c>
       <c r="L4" t="n">
-        <v>379243.7031014885</v>
+        <v>379243.7031014886</v>
       </c>
       <c r="M4" t="n">
-        <v>378433.7657281701</v>
+        <v>378433.7657281702</v>
       </c>
       <c r="N4" t="n">
-        <v>378433.7657281701</v>
+        <v>378433.7657281702</v>
       </c>
       <c r="O4" t="n">
         <v>378820.8283918878</v>
@@ -26479,7 +26479,7 @@
         <v>28642.95693774778</v>
       </c>
       <c r="F5" t="n">
-        <v>28642.95693774779</v>
+        <v>28642.95693774778</v>
       </c>
       <c r="G5" t="n">
         <v>38672.33876582418</v>
@@ -26491,10 +26491,10 @@
         <v>38672.33876582418</v>
       </c>
       <c r="J5" t="n">
-        <v>47449.67722016352</v>
+        <v>47449.67722016351</v>
       </c>
       <c r="K5" t="n">
-        <v>47449.6772201635</v>
+        <v>47449.67722016351</v>
       </c>
       <c r="L5" t="n">
         <v>47324.7475828481</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254850.0303657518</v>
+        <v>-254854.4967499571</v>
       </c>
       <c r="C6" t="n">
-        <v>-254850.0303657518</v>
+        <v>-254854.4967499571</v>
       </c>
       <c r="D6" t="n">
-        <v>-255813.8786628254</v>
+        <v>-255817.0717456739</v>
       </c>
       <c r="E6" t="n">
-        <v>-444651.8573196849</v>
+        <v>-444961.8151199584</v>
       </c>
       <c r="F6" t="n">
-        <v>-165525.742140971</v>
+        <v>-165835.6999412444</v>
       </c>
       <c r="G6" t="n">
-        <v>-313706.3154067871</v>
+        <v>-313706.3154067872</v>
       </c>
       <c r="H6" t="n">
-        <v>-218266.7899876538</v>
+        <v>-218266.7899876539</v>
       </c>
       <c r="I6" t="n">
-        <v>-218266.7899876539</v>
+        <v>-218266.789987654</v>
       </c>
       <c r="J6" t="n">
         <v>-371367.7798027395</v>
       </c>
       <c r="K6" t="n">
-        <v>-227871.4967958599</v>
+        <v>-227871.4967958602</v>
       </c>
       <c r="L6" t="n">
-        <v>-323833.4705037909</v>
+        <v>-323833.470503791</v>
       </c>
       <c r="M6" t="n">
-        <v>-266707.7541260096</v>
+        <v>-266707.7541260098</v>
       </c>
       <c r="N6" t="n">
-        <v>-220510.3878336868</v>
+        <v>-220510.387833687</v>
       </c>
       <c r="O6" t="n">
-        <v>-296036.1975868341</v>
+        <v>-296036.1975868343</v>
       </c>
       <c r="P6" t="n">
-        <v>-223781.2827275905</v>
+        <v>-223781.2827275904</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>178.1482641530678</v>
       </c>
       <c r="F2" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G2" t="n">
         <v>297.4476709269845</v>
@@ -26725,7 +26725,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="P2" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
     </row>
     <row r="3">
@@ -26744,13 +26744,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="F3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="G3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="H3" t="n">
         <v>101.1713840758394</v>
@@ -26765,16 +26765,16 @@
         <v>101.1713840758394</v>
       </c>
       <c r="L3" t="n">
-        <v>101.1713840758393</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="M3" t="n">
-        <v>101.1713840758393</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="N3" t="n">
-        <v>101.1713840758393</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="O3" t="n">
-        <v>101.1713840758393</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="P3" t="n">
         <v>101.1713840758394</v>
@@ -26796,16 +26796,16 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="F4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="G4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="H4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="I4" t="n">
         <v>188.4979333192471</v>
@@ -26820,16 +26820,16 @@
         <v>445.7594930492623</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="O4" t="n">
-        <v>350.824693550067</v>
+        <v>350.8246935500671</v>
       </c>
       <c r="P4" t="n">
-        <v>350.824693550067</v>
+        <v>350.8246935500671</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>178.1482641530678</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>119.2994067739166</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>185.2986836792337</v>
+        <v>185.2986836792336</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>178.1482641530678</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>119.2994067739166</v>
@@ -27264,7 +27264,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="M4" t="n">
-        <v>185.2986836792337</v>
+        <v>185.2986836792336</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>220.4301160555486</v>
       </c>
       <c r="S8" t="n">
-        <v>236.91502223125</v>
+        <v>236.785106778059</v>
       </c>
       <c r="T8" t="n">
-        <v>224.246294399988</v>
+        <v>224.3762098531791</v>
       </c>
       <c r="U8" t="n">
         <v>250.1830790232068</v>
@@ -27932,19 +27932,19 @@
         <v>173.5512447576523</v>
       </c>
       <c r="C9" t="n">
-        <v>184.700252441442</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D9" t="n">
-        <v>159.1723150765785</v>
+        <v>155.9730654365651</v>
       </c>
       <c r="E9" t="n">
-        <v>171.8275718397997</v>
+        <v>169.0096727568758</v>
       </c>
       <c r="F9" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>145.7629687550784</v>
+        <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
         <v>127.8372169228968</v>
@@ -27980,10 +27980,10 @@
         <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>192.4336248079265</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T9" t="n">
-        <v>215.8480604164874</v>
+        <v>212.6488107764739</v>
       </c>
       <c r="U9" t="n">
         <v>237.2423862021824</v>
@@ -28111,28 +28111,28 @@
         <v>178.1482641530678</v>
       </c>
       <c r="J11" t="n">
-        <v>178.1482641530678</v>
+        <v>76.78161896459409</v>
       </c>
       <c r="K11" t="n">
-        <v>6.727192146300993</v>
+        <v>6.727192146301029</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M11" t="n">
-        <v>88.49454777923873</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O11" t="n">
-        <v>153.9316356498858</v>
+        <v>1.641985991187759</v>
       </c>
       <c r="P11" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="Q11" t="n">
-        <v>89.71173703742198</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="R11" t="n">
         <v>178.1482641530678</v>
@@ -28190,7 +28190,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S12" t="n">
-        <v>178.1482641530678</v>
+        <v>3.092858000757246</v>
       </c>
       <c r="T12" t="n">
-        <v>93.39320668698389</v>
+        <v>26.4729902862432</v>
       </c>
       <c r="U12" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="V12" t="n">
-        <v>178.1482641530678</v>
+        <v>134.3981482091468</v>
       </c>
       <c r="W12" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="X12" t="n">
-        <v>28.81498112022345</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y12" t="n">
-        <v>34.88635281477846</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="13">
@@ -28248,7 +28248,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>178.1482641530678</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
         <v>145.1826502507107</v>
@@ -28263,7 +28263,7 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H13" t="n">
-        <v>178.1482641530678</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I13" t="n">
         <v>164.852968067965</v>
@@ -28272,16 +28272,16 @@
         <v>120.239607582909</v>
       </c>
       <c r="K13" t="n">
+        <v>113.5725269563436</v>
+      </c>
+      <c r="L13" t="n">
+        <v>32.15181624817892</v>
+      </c>
+      <c r="M13" t="n">
         <v>178.1482641530678</v>
       </c>
-      <c r="L13" t="n">
-        <v>96.49252812613247</v>
-      </c>
-      <c r="M13" t="n">
-        <v>25.21686539889346</v>
-      </c>
       <c r="N13" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O13" t="n">
         <v>178.1482641530678</v>
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="C14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="E14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="H14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="J14" t="n">
-        <v>76.78161896459406</v>
+        <v>76.78161896459409</v>
       </c>
       <c r="K14" t="n">
-        <v>6.727192146300993</v>
+        <v>17.49383428958203</v>
       </c>
       <c r="L14" t="n">
         <v>141.3051631366612</v>
@@ -28363,37 +28363,37 @@
         <v>112.4091523741034</v>
       </c>
       <c r="O14" t="n">
-        <v>1.641985991187717</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P14" t="n">
-        <v>178.1482641530679</v>
+        <v>15.09197235108883</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="R14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="15">
@@ -28406,13 +28406,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>131.7978992322281</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
@@ -28427,7 +28427,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161051</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7198007890777</v>
+        <v>49.96474332299368</v>
       </c>
       <c r="S15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X15" t="n">
-        <v>178.1482641530679</v>
+        <v>28.81498112022354</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.1482641530679</v>
+        <v>34.88635281477855</v>
       </c>
     </row>
     <row r="16">
@@ -28491,67 +28491,67 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>162.6756569736003</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>178.1482641530679</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H16" t="n">
-        <v>165.8243976546666</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I16" t="n">
         <v>164.852968067965</v>
       </c>
       <c r="J16" t="n">
-        <v>178.1482641530679</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="L16" t="n">
-        <v>32.15181624817889</v>
+        <v>71.71148836638494</v>
       </c>
       <c r="M16" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N16" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="P16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="R16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="17">
@@ -28582,13 +28582,13 @@
         <v>297.4476709269845</v>
       </c>
       <c r="I17" t="n">
-        <v>241.0097692154761</v>
+        <v>273.1433272834435</v>
       </c>
       <c r="J17" t="n">
-        <v>76.78161896459406</v>
+        <v>76.78161896459409</v>
       </c>
       <c r="K17" t="n">
-        <v>6.727192146300993</v>
+        <v>6.727192146301029</v>
       </c>
       <c r="L17" t="n">
         <v>141.3051631366612</v>
@@ -28603,22 +28603,22 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>203.589905670336</v>
+        <v>203.5899056703359</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.71173703742198</v>
+        <v>89.71173703742201</v>
       </c>
       <c r="R17" t="n">
-        <v>254.6997635431647</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S17" t="n">
         <v>297.4476709269845</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4658813998193</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="U17" t="n">
-        <v>297.4476709269845</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V17" t="n">
         <v>297.4476709269845</v>
@@ -28640,31 +28640,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7446044746268</v>
+        <v>123.3250996753916</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I18" t="n">
         <v>107.3634103439874</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -28694,7 +28694,7 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T18" t="n">
-        <v>92.48153559247308</v>
+        <v>26.47299028624318</v>
       </c>
       <c r="U18" t="n">
         <v>237.2280694968886</v>
@@ -28706,7 +28706,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022351</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28746,22 +28746,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K19" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L19" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M19" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O19" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P19" t="n">
-        <v>58.47859890024888</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2169859636892</v>
@@ -28819,31 +28819,31 @@
         <v>297.4476709269845</v>
       </c>
       <c r="I20" t="n">
-        <v>241.0097692154761</v>
+        <v>295.8812334693939</v>
       </c>
       <c r="J20" t="n">
-        <v>76.78161896459406</v>
+        <v>265.2795522838412</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146300993</v>
+        <v>6.727192146301022</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>106.8192473728358</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>153.9316356498858</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>203.589905670336</v>
+        <v>203.5899056703359</v>
       </c>
       <c r="Q20" t="n">
-        <v>147.3120411150305</v>
+        <v>89.71173703742201</v>
       </c>
       <c r="R20" t="n">
         <v>194.8815453823669</v>
@@ -28852,7 +28852,7 @@
         <v>227.5169945584482</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4658813998193</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="U20" t="n">
         <v>250.1505414926498</v>
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
@@ -28892,16 +28892,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>88.77607300475435</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,19 +28922,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S21" t="n">
-        <v>3.092858000757159</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9709236054903</v>
+        <v>26.47299028624317</v>
       </c>
       <c r="U21" t="n">
-        <v>48.73013617764146</v>
+        <v>215.0657112565025</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -28946,7 +28946,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>34.88635281477852</v>
       </c>
     </row>
     <row r="22">
@@ -28983,22 +28983,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K22" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L22" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817891</v>
       </c>
       <c r="M22" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928137</v>
       </c>
       <c r="O22" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777682</v>
       </c>
       <c r="P22" t="n">
-        <v>58.47859890024888</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2169859636892</v>
@@ -29056,31 +29056,31 @@
         <v>297.4476709269845</v>
       </c>
       <c r="I23" t="n">
-        <v>297.4476709269845</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="J23" t="n">
-        <v>265.2795522838412</v>
+        <v>76.78161896459409</v>
       </c>
       <c r="K23" t="n">
-        <v>166.074351990505</v>
+        <v>37.8501516244356</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P23" t="n">
-        <v>15.09197235108879</v>
+        <v>15.09197235108882</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.71173703742198</v>
+        <v>89.71173703742201</v>
       </c>
       <c r="R23" t="n">
         <v>297.4476709269845</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
@@ -29123,7 +29123,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -29159,28 +29159,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161051</v>
+        <v>6.869455874161069</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S24" t="n">
-        <v>191.5907913200043</v>
+        <v>185.6419445706299</v>
       </c>
       <c r="T24" t="n">
-        <v>183.6617447269751</v>
+        <v>26.47299028624318</v>
       </c>
       <c r="U24" t="n">
-        <v>48.73013617764148</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V24" t="n">
-        <v>52.15098759615512</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>78.20665025776447</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022351</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29220,22 +29220,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K25" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L25" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817891</v>
       </c>
       <c r="M25" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928137</v>
       </c>
       <c r="O25" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777682</v>
       </c>
       <c r="P25" t="n">
-        <v>58.47859890024888</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2169859636892</v>
@@ -29363,7 +29363,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7446044746268</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161051</v>
+        <v>6.869455874161069</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5907913200043</v>
+        <v>122.9894063555754</v>
       </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>213.484750524001</v>
       </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
       <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
         <v>213.484750524001</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>213.484750524001</v>
       </c>
       <c r="Y27" t="n">
-        <v>168.9870038904227</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="28">
@@ -29457,22 +29457,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K28" t="n">
-        <v>67.02998013918999</v>
+        <v>213.484750524001</v>
       </c>
       <c r="L28" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817891</v>
       </c>
       <c r="M28" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N28" t="n">
-        <v>213.484750524001</v>
+        <v>102.6369170459523</v>
       </c>
       <c r="O28" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777682</v>
       </c>
       <c r="P28" t="n">
-        <v>94.08553580701096</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q28" t="n">
         <v>127.2169859636892</v>
@@ -29597,7 +29597,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>166.9666332804586</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -29639,25 +29639,25 @@
         <v>134.7198007890777</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T30" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>213.484750524001</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>17.03302064465549</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X30" t="n">
         <v>213.484750524001</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29688,28 +29688,28 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I31" t="n">
-        <v>164.852968067965</v>
+        <v>213.484750524001</v>
       </c>
       <c r="J31" t="n">
+        <v>120.239607582909</v>
+      </c>
+      <c r="K31" t="n">
+        <v>67.02998013919</v>
+      </c>
+      <c r="L31" t="n">
         <v>213.484750524001</v>
       </c>
-      <c r="K31" t="n">
-        <v>206.3563672595801</v>
-      </c>
-      <c r="L31" t="n">
-        <v>32.15181624817889</v>
-      </c>
       <c r="M31" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928137</v>
       </c>
       <c r="O31" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777682</v>
       </c>
       <c r="P31" t="n">
-        <v>58.47859890024888</v>
+        <v>61.08541222987256</v>
       </c>
       <c r="Q31" t="n">
         <v>127.2169859636892</v>
@@ -29779,13 +29779,13 @@
         <v>214.3124603908652</v>
       </c>
       <c r="M32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.1953356407512</v>
       </c>
       <c r="N32" t="n">
         <v>214.3124603908652</v>
       </c>
       <c r="O32" t="n">
-        <v>194.195335640751</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="P32" t="n">
         <v>214.3124603908652</v>
@@ -29834,7 +29834,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>77.19367833705287</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -29849,7 +29849,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J33" t="n">
-        <v>52.47517038390262</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,25 +29870,25 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161073</v>
+        <v>6.869455874161069</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
         <v>214.3124603908652</v>
       </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
       <c r="V33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>214.3124603908652</v>
+        <v>199.271226489906</v>
       </c>
       <c r="X33" t="n">
         <v>214.3124603908652</v>
@@ -29907,7 +29907,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>182.1479855884379</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
@@ -29916,13 +29916,13 @@
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="G34" t="n">
-        <v>206.2650998874395</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H34" t="n">
-        <v>165.8243976546666</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="I34" t="n">
         <v>164.852968067965</v>
@@ -29934,22 +29934,22 @@
         <v>67.02998013919</v>
       </c>
       <c r="L34" t="n">
-        <v>32.15181624817892</v>
+        <v>32.15181624817891</v>
       </c>
       <c r="M34" t="n">
-        <v>214.3124603908652</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52015736928138</v>
+        <v>16.52015736928137</v>
       </c>
       <c r="O34" t="n">
-        <v>37.47888399777683</v>
+        <v>37.47888399777682</v>
       </c>
       <c r="P34" t="n">
         <v>58.4785989002489</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.2169859636892</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="R34" t="n">
         <v>203.4299611556341</v>
@@ -30004,37 +30004,37 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I35" t="n">
-        <v>241.0097692154761</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="J35" t="n">
+        <v>252.5576059295523</v>
+      </c>
+      <c r="K35" t="n">
+        <v>6.727192146301022</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>184.372028424885</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
         <v>272.0591682562687</v>
-      </c>
-      <c r="K35" t="n">
-        <v>267.1880015163297</v>
-      </c>
-      <c r="L35" t="n">
-        <v>88.25153654516707</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>225.8945117006674</v>
-      </c>
-      <c r="P35" t="n">
-        <v>15.09197235108883</v>
       </c>
       <c r="Q35" t="n">
         <v>89.71173703742201</v>
       </c>
       <c r="R35" t="n">
-        <v>194.8815453823669</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="S35" t="n">
-        <v>227.5169945584482</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="T35" t="n">
         <v>222.4658813998193</v>
@@ -30086,7 +30086,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47517038390262</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,16 +30107,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161073</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7198007890777</v>
+        <v>81.23704502436894</v>
       </c>
       <c r="S36" t="n">
-        <v>154.6187119666204</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30125,7 +30125,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>6.243774206982948</v>
+        <v>6.243774206982835</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -30171,22 +30171,22 @@
         <v>67.02998013919</v>
       </c>
       <c r="L37" t="n">
-        <v>32.15181624817892</v>
+        <v>32.15181624817891</v>
       </c>
       <c r="M37" t="n">
         <v>25.21686539889348</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52015736928138</v>
+        <v>16.52015736928137</v>
       </c>
       <c r="O37" t="n">
-        <v>37.47888399777683</v>
+        <v>37.47888399777682</v>
       </c>
       <c r="P37" t="n">
         <v>58.4785989002489</v>
       </c>
       <c r="Q37" t="n">
-        <v>162.7734878975363</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R37" t="n">
         <v>203.4299611556341</v>
@@ -30195,7 +30195,7 @@
         <v>235.4380443661806</v>
       </c>
       <c r="T37" t="n">
-        <v>223.761558450323</v>
+        <v>259.3180603841701</v>
       </c>
       <c r="U37" t="n">
         <v>272.0591682562687</v>
@@ -30241,37 +30241,37 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I38" t="n">
-        <v>241.0097692154761</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="J38" t="n">
         <v>76.78161896459409</v>
       </c>
       <c r="K38" t="n">
-        <v>267.1880015163297</v>
+        <v>6.727192146301022</v>
       </c>
       <c r="L38" t="n">
-        <v>213.2680391874428</v>
+        <v>121.1065910087453</v>
       </c>
       <c r="M38" t="n">
-        <v>11.50370235205585</v>
+        <v>178.7821234236175</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>184.372028424885</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
+        <v>15.09197235108882</v>
+      </c>
+      <c r="Q38" t="n">
         <v>272.0591682562687</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>89.71173703742201</v>
       </c>
       <c r="R38" t="n">
         <v>194.8815453823669</v>
       </c>
       <c r="S38" t="n">
-        <v>227.5169945584482</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="T38" t="n">
         <v>272.0591682562687</v>
@@ -30302,7 +30302,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -30320,10 +30320,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I39" t="n">
-        <v>72.73332182458375</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47517038390262</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,13 +30344,13 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161073</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S39" t="n">
-        <v>191.5907913200043</v>
+        <v>134.0353957596573</v>
       </c>
       <c r="T39" t="n">
         <v>214.9709236054903</v>
@@ -30362,10 +30362,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>6.243774206982948</v>
+        <v>6.243774206982835</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30408,25 +30408,25 @@
         <v>67.02998013919</v>
       </c>
       <c r="L40" t="n">
-        <v>32.15181624817892</v>
+        <v>32.15181624817891</v>
       </c>
       <c r="M40" t="n">
         <v>25.21686539889348</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52015736928138</v>
+        <v>16.52015736928137</v>
       </c>
       <c r="O40" t="n">
-        <v>37.47888399777683</v>
+        <v>37.47888399777682</v>
       </c>
       <c r="P40" t="n">
         <v>58.4785989002489</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.2169859636892</v>
+        <v>162.7734878975363</v>
       </c>
       <c r="R40" t="n">
-        <v>238.9864630894812</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S40" t="n">
         <v>235.4380443661806</v>
@@ -30481,10 +30481,10 @@
         <v>241.009769215476</v>
       </c>
       <c r="J41" t="n">
-        <v>76.78161896459409</v>
+        <v>241.009769215476</v>
       </c>
       <c r="K41" t="n">
-        <v>232.4172173879755</v>
+        <v>190.9023523070312</v>
       </c>
       <c r="L41" t="n">
         <v>241.009769215476</v>
@@ -30493,22 +30493,22 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="O41" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="P41" t="n">
-        <v>241.009769215476</v>
+        <v>15.09197235108882</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.009769215476</v>
+        <v>89.71173703742201</v>
       </c>
       <c r="R41" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="S41" t="n">
-        <v>227.5169945584482</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T41" t="n">
         <v>241.009769215476</v>
@@ -30560,7 +30560,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47517038390262</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,16 +30581,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.869455874161069</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T42" t="n">
-        <v>144.0350872717589</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30599,10 +30599,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>241.009769215476</v>
+        <v>103.9914956426766</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30645,28 +30645,28 @@
         <v>67.02998013919</v>
       </c>
       <c r="L43" t="n">
-        <v>129.678725819782</v>
+        <v>32.15181624817891</v>
       </c>
       <c r="M43" t="n">
         <v>25.21686539889348</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52015736928138</v>
+        <v>16.52015736928137</v>
       </c>
       <c r="O43" t="n">
-        <v>37.47888399777683</v>
+        <v>37.47888399777682</v>
       </c>
       <c r="P43" t="n">
         <v>58.4785989002489</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.2169859636892</v>
+        <v>230.3156203845878</v>
       </c>
       <c r="R43" t="n">
         <v>203.4299611556341</v>
       </c>
       <c r="S43" t="n">
-        <v>241.009769215476</v>
+        <v>235.4380443661806</v>
       </c>
       <c r="T43" t="n">
         <v>223.761558450323</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="C44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="D44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="E44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="I44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="K44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="L44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="M44" t="n">
-        <v>104.2764317777424</v>
+        <v>241.009769215476</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>241.0097692154761</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>15.0919723510888</v>
+        <v>241.009769215476</v>
       </c>
       <c r="Q44" t="n">
-        <v>241.0097692154761</v>
+        <v>89.71173703742201</v>
       </c>
       <c r="R44" t="n">
-        <v>194.8815453823669</v>
+        <v>205.99432465812</v>
       </c>
       <c r="S44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4658813998193</v>
+        <v>241.009769215476</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
     </row>
     <row r="45">
@@ -30818,31 +30818,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161055</v>
+        <v>6.869455874161069</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>103.9914956426766</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0097692154761</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>194.637123521531</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -30879,43 +30879,43 @@
         <v>120.239607582909</v>
       </c>
       <c r="K46" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L46" t="n">
-        <v>135.2504506690774</v>
+        <v>32.15181624817891</v>
       </c>
       <c r="M46" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928137</v>
       </c>
       <c r="O46" t="n">
-        <v>37.47888399777681</v>
+        <v>97.42598550953804</v>
       </c>
       <c r="P46" t="n">
-        <v>58.47859890024888</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q46" t="n">
         <v>127.2169859636892</v>
       </c>
       <c r="R46" t="n">
-        <v>203.4299611556341</v>
+        <v>241.009769215476</v>
       </c>
       <c r="S46" t="n">
-        <v>235.4380443661806</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T46" t="n">
         <v>223.761558450323</v>
       </c>
       <c r="U46" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="V46" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="W46" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H11" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I11" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J11" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246053</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L11" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M11" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P11" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R11" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T11" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K12" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P12" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R12" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S12" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H13" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J13" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19623423752832</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N13" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P13" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S13" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H14" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I14" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J14" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246053</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L14" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M14" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P14" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R14" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T14" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K15" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P15" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R15" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S15" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H16" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J16" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19623423752832</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N16" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P16" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S16" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I17" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J17" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246053</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P17" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R17" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T17" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K18" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R18" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S18" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H19" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J19" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19623423752832</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N19" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P19" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S19" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.406719131963173</v>
       </c>
       <c r="H20" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I20" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J20" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246051</v>
       </c>
       <c r="L20" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M20" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032855</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401892</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556012</v>
       </c>
       <c r="P20" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521928</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178813</v>
       </c>
       <c r="R20" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318169</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610813</v>
       </c>
       <c r="T20" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122626</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729614</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K21" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000168</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447574</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427546</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P21" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795499</v>
       </c>
       <c r="R21" t="n">
         <v>13.51115200922248</v>
       </c>
       <c r="S21" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935655</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971353</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924972</v>
       </c>
       <c r="H22" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J22" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N22" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P22" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542645</v>
       </c>
       <c r="S22" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679423</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590767</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.406719131963173</v>
       </c>
       <c r="H23" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I23" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J23" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246051</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032855</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401892</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556012</v>
       </c>
       <c r="P23" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521928</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178813</v>
       </c>
       <c r="R23" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318169</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610813</v>
       </c>
       <c r="T23" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122626</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729614</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K24" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000168</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447574</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427546</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P24" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795499</v>
       </c>
       <c r="R24" t="n">
         <v>13.51115200922248</v>
       </c>
       <c r="S24" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935655</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971353</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924972</v>
       </c>
       <c r="H25" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J25" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N25" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P25" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542645</v>
       </c>
       <c r="S25" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679423</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590767</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.406719131963173</v>
       </c>
       <c r="H26" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I26" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J26" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246051</v>
       </c>
       <c r="L26" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M26" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032855</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401892</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556012</v>
       </c>
       <c r="P26" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521928</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178813</v>
       </c>
       <c r="R26" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318169</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610813</v>
       </c>
       <c r="T26" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122626</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729614</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K27" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000168</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447574</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427546</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P27" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795499</v>
       </c>
       <c r="R27" t="n">
         <v>13.51115200922248</v>
       </c>
       <c r="S27" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935655</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971353</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924972</v>
       </c>
       <c r="H28" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J28" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N28" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P28" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542645</v>
       </c>
       <c r="S28" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679423</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590767</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.406719131963173</v>
       </c>
       <c r="H29" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I29" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J29" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246051</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M29" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032855</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401892</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556012</v>
       </c>
       <c r="P29" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521928</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178813</v>
       </c>
       <c r="R29" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318169</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610813</v>
       </c>
       <c r="T29" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122626</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729614</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K30" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000168</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447574</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427546</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P30" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795499</v>
       </c>
       <c r="R30" t="n">
         <v>13.51115200922248</v>
       </c>
       <c r="S30" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935655</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971353</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924972</v>
       </c>
       <c r="H31" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J31" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N31" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542645</v>
       </c>
       <c r="S31" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679423</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590767</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4067191319631729</v>
+        <v>0.406719131963173</v>
       </c>
       <c r="H32" t="n">
         <v>4.165312310217846</v>
@@ -33421,34 +33421,34 @@
         <v>34.51977792645938</v>
       </c>
       <c r="K32" t="n">
-        <v>51.7361987824605</v>
+        <v>51.73619878246051</v>
       </c>
       <c r="L32" t="n">
         <v>64.18332941727847</v>
       </c>
       <c r="M32" t="n">
-        <v>71.41632078032853</v>
+        <v>71.41632078032855</v>
       </c>
       <c r="N32" t="n">
-        <v>72.57191151401891</v>
+        <v>72.57191151401892</v>
       </c>
       <c r="O32" t="n">
-        <v>68.52759814556011</v>
+        <v>68.52759814556012</v>
       </c>
       <c r="P32" t="n">
-        <v>58.48671957521927</v>
+        <v>58.48671957521928</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.92109066178812</v>
+        <v>43.92109066178813</v>
       </c>
       <c r="R32" t="n">
-        <v>25.54857067318168</v>
+        <v>25.54857067318169</v>
       </c>
       <c r="S32" t="n">
-        <v>9.268112219610812</v>
+        <v>9.268112219610813</v>
       </c>
       <c r="T32" t="n">
-        <v>1.78041300016879</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U32" t="n">
         <v>0.03253753055705383</v>
@@ -33488,28 +33488,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2176139204650129</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H33" t="n">
-        <v>2.101692337122625</v>
+        <v>2.101692337122626</v>
       </c>
       <c r="I33" t="n">
-        <v>7.492409103729613</v>
+        <v>7.492409103729614</v>
       </c>
       <c r="J33" t="n">
         <v>20.55974324884581</v>
       </c>
       <c r="K33" t="n">
-        <v>35.13987592000167</v>
+        <v>35.13987592000168</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24989970447573</v>
+        <v>47.24989970447574</v>
       </c>
       <c r="M33" t="n">
         <v>55.13840432133244</v>
       </c>
       <c r="N33" t="n">
-        <v>56.59775381427545</v>
+        <v>56.59775381427546</v>
       </c>
       <c r="O33" t="n">
         <v>51.77588747134016</v>
@@ -33518,16 +33518,16 @@
         <v>41.55471433862164</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.77822605795498</v>
+        <v>27.77822605795499</v>
       </c>
       <c r="R33" t="n">
-        <v>13.51115200922247</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S33" t="n">
-        <v>4.042083127935654</v>
+        <v>4.042083127935655</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8771368109971351</v>
+        <v>0.8771368109971353</v>
       </c>
       <c r="U33" t="n">
         <v>0.01431670529375086</v>
@@ -33567,7 +33567,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1824402007924971</v>
+        <v>0.1824402007924972</v>
       </c>
       <c r="H34" t="n">
         <v>1.622059239773294</v>
@@ -33579,7 +33579,7 @@
         <v>12.89852219602955</v>
       </c>
       <c r="K34" t="n">
-        <v>21.1962342375283</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L34" t="n">
         <v>27.12388221600454</v>
@@ -33600,16 +33600,16 @@
         <v>15.27687899545174</v>
       </c>
       <c r="R34" t="n">
-        <v>8.203174846542643</v>
+        <v>8.203174846542645</v>
       </c>
       <c r="S34" t="n">
         <v>3.179435135629245</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7795172215679422</v>
+        <v>0.7795172215679423</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590766</v>
+        <v>0.009951283679590767</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4067191319631729</v>
+        <v>0.406719131963173</v>
       </c>
       <c r="H35" t="n">
         <v>4.165312310217846</v>
@@ -33658,34 +33658,34 @@
         <v>34.51977792645938</v>
       </c>
       <c r="K35" t="n">
-        <v>51.7361987824605</v>
+        <v>51.73619878246051</v>
       </c>
       <c r="L35" t="n">
         <v>64.18332941727847</v>
       </c>
       <c r="M35" t="n">
-        <v>71.41632078032853</v>
+        <v>71.41632078032855</v>
       </c>
       <c r="N35" t="n">
-        <v>72.57191151401891</v>
+        <v>72.57191151401892</v>
       </c>
       <c r="O35" t="n">
-        <v>68.52759814556011</v>
+        <v>68.52759814556012</v>
       </c>
       <c r="P35" t="n">
-        <v>58.48671957521927</v>
+        <v>58.48671957521928</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.92109066178812</v>
+        <v>43.92109066178813</v>
       </c>
       <c r="R35" t="n">
-        <v>25.54857067318168</v>
+        <v>25.54857067318169</v>
       </c>
       <c r="S35" t="n">
-        <v>9.268112219610812</v>
+        <v>9.268112219610813</v>
       </c>
       <c r="T35" t="n">
-        <v>1.78041300016879</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U35" t="n">
         <v>0.03253753055705383</v>
@@ -33725,28 +33725,28 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2176139204650129</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H36" t="n">
-        <v>2.101692337122625</v>
+        <v>2.101692337122626</v>
       </c>
       <c r="I36" t="n">
-        <v>7.492409103729613</v>
+        <v>7.492409103729614</v>
       </c>
       <c r="J36" t="n">
         <v>20.55974324884581</v>
       </c>
       <c r="K36" t="n">
-        <v>35.13987592000167</v>
+        <v>35.13987592000168</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24989970447573</v>
+        <v>47.24989970447574</v>
       </c>
       <c r="M36" t="n">
         <v>55.13840432133244</v>
       </c>
       <c r="N36" t="n">
-        <v>56.59775381427545</v>
+        <v>56.59775381427546</v>
       </c>
       <c r="O36" t="n">
         <v>51.77588747134016</v>
@@ -33755,16 +33755,16 @@
         <v>41.55471433862164</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.77822605795498</v>
+        <v>27.77822605795499</v>
       </c>
       <c r="R36" t="n">
-        <v>13.51115200922247</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S36" t="n">
-        <v>4.042083127935654</v>
+        <v>4.042083127935655</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8771368109971351</v>
+        <v>0.8771368109971353</v>
       </c>
       <c r="U36" t="n">
         <v>0.01431670529375086</v>
@@ -33804,7 +33804,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1824402007924971</v>
+        <v>0.1824402007924972</v>
       </c>
       <c r="H37" t="n">
         <v>1.622059239773294</v>
@@ -33816,7 +33816,7 @@
         <v>12.89852219602955</v>
       </c>
       <c r="K37" t="n">
-        <v>21.1962342375283</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L37" t="n">
         <v>27.12388221600454</v>
@@ -33837,16 +33837,16 @@
         <v>15.27687899545174</v>
       </c>
       <c r="R37" t="n">
-        <v>8.203174846542643</v>
+        <v>8.203174846542645</v>
       </c>
       <c r="S37" t="n">
         <v>3.179435135629245</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7795172215679422</v>
+        <v>0.7795172215679423</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590766</v>
+        <v>0.009951283679590767</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4067191319631729</v>
+        <v>0.406719131963173</v>
       </c>
       <c r="H38" t="n">
         <v>4.165312310217846</v>
@@ -33895,34 +33895,34 @@
         <v>34.51977792645938</v>
       </c>
       <c r="K38" t="n">
-        <v>51.7361987824605</v>
+        <v>51.73619878246051</v>
       </c>
       <c r="L38" t="n">
         <v>64.18332941727847</v>
       </c>
       <c r="M38" t="n">
-        <v>71.41632078032853</v>
+        <v>71.41632078032855</v>
       </c>
       <c r="N38" t="n">
-        <v>72.57191151401891</v>
+        <v>72.57191151401892</v>
       </c>
       <c r="O38" t="n">
-        <v>68.52759814556011</v>
+        <v>68.52759814556012</v>
       </c>
       <c r="P38" t="n">
-        <v>58.48671957521927</v>
+        <v>58.48671957521928</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.92109066178812</v>
+        <v>43.92109066178813</v>
       </c>
       <c r="R38" t="n">
-        <v>25.54857067318168</v>
+        <v>25.54857067318169</v>
       </c>
       <c r="S38" t="n">
-        <v>9.268112219610812</v>
+        <v>9.268112219610813</v>
       </c>
       <c r="T38" t="n">
-        <v>1.78041300016879</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U38" t="n">
         <v>0.03253753055705383</v>
@@ -33962,28 +33962,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2176139204650129</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H39" t="n">
-        <v>2.101692337122625</v>
+        <v>2.101692337122626</v>
       </c>
       <c r="I39" t="n">
-        <v>7.492409103729613</v>
+        <v>7.492409103729614</v>
       </c>
       <c r="J39" t="n">
         <v>20.55974324884581</v>
       </c>
       <c r="K39" t="n">
-        <v>35.13987592000167</v>
+        <v>35.13987592000168</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24989970447573</v>
+        <v>47.24989970447574</v>
       </c>
       <c r="M39" t="n">
         <v>55.13840432133244</v>
       </c>
       <c r="N39" t="n">
-        <v>56.59775381427545</v>
+        <v>56.59775381427546</v>
       </c>
       <c r="O39" t="n">
         <v>51.77588747134016</v>
@@ -33992,16 +33992,16 @@
         <v>41.55471433862164</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.77822605795498</v>
+        <v>27.77822605795499</v>
       </c>
       <c r="R39" t="n">
-        <v>13.51115200922247</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S39" t="n">
-        <v>4.042083127935654</v>
+        <v>4.042083127935655</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8771368109971351</v>
+        <v>0.8771368109971353</v>
       </c>
       <c r="U39" t="n">
         <v>0.01431670529375086</v>
@@ -34041,7 +34041,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1824402007924971</v>
+        <v>0.1824402007924972</v>
       </c>
       <c r="H40" t="n">
         <v>1.622059239773294</v>
@@ -34053,7 +34053,7 @@
         <v>12.89852219602955</v>
       </c>
       <c r="K40" t="n">
-        <v>21.1962342375283</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L40" t="n">
         <v>27.12388221600454</v>
@@ -34074,16 +34074,16 @@
         <v>15.27687899545174</v>
       </c>
       <c r="R40" t="n">
-        <v>8.203174846542643</v>
+        <v>8.203174846542645</v>
       </c>
       <c r="S40" t="n">
         <v>3.179435135629245</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7795172215679422</v>
+        <v>0.7795172215679423</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590766</v>
+        <v>0.009951283679590767</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4067191319631729</v>
+        <v>0.406719131963173</v>
       </c>
       <c r="H41" t="n">
         <v>4.165312310217846</v>
@@ -34132,34 +34132,34 @@
         <v>34.51977792645938</v>
       </c>
       <c r="K41" t="n">
-        <v>51.7361987824605</v>
+        <v>51.73619878246051</v>
       </c>
       <c r="L41" t="n">
         <v>64.18332941727847</v>
       </c>
       <c r="M41" t="n">
-        <v>71.41632078032853</v>
+        <v>71.41632078032855</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57191151401891</v>
+        <v>72.57191151401892</v>
       </c>
       <c r="O41" t="n">
-        <v>68.52759814556011</v>
+        <v>68.52759814556012</v>
       </c>
       <c r="P41" t="n">
-        <v>58.48671957521927</v>
+        <v>58.48671957521928</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178812</v>
+        <v>43.92109066178813</v>
       </c>
       <c r="R41" t="n">
-        <v>25.54857067318168</v>
+        <v>25.54857067318169</v>
       </c>
       <c r="S41" t="n">
-        <v>9.268112219610812</v>
+        <v>9.268112219610813</v>
       </c>
       <c r="T41" t="n">
-        <v>1.78041300016879</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U41" t="n">
         <v>0.03253753055705383</v>
@@ -34199,28 +34199,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2176139204650129</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H42" t="n">
-        <v>2.101692337122625</v>
+        <v>2.101692337122626</v>
       </c>
       <c r="I42" t="n">
-        <v>7.492409103729613</v>
+        <v>7.492409103729614</v>
       </c>
       <c r="J42" t="n">
         <v>20.55974324884581</v>
       </c>
       <c r="K42" t="n">
-        <v>35.13987592000167</v>
+        <v>35.13987592000168</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24989970447573</v>
+        <v>47.24989970447574</v>
       </c>
       <c r="M42" t="n">
         <v>55.13840432133244</v>
       </c>
       <c r="N42" t="n">
-        <v>56.59775381427545</v>
+        <v>56.59775381427546</v>
       </c>
       <c r="O42" t="n">
         <v>51.77588747134016</v>
@@ -34229,16 +34229,16 @@
         <v>41.55471433862164</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.77822605795498</v>
+        <v>27.77822605795499</v>
       </c>
       <c r="R42" t="n">
-        <v>13.51115200922247</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S42" t="n">
-        <v>4.042083127935654</v>
+        <v>4.042083127935655</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971351</v>
+        <v>0.8771368109971353</v>
       </c>
       <c r="U42" t="n">
         <v>0.01431670529375086</v>
@@ -34278,7 +34278,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1824402007924971</v>
+        <v>0.1824402007924972</v>
       </c>
       <c r="H43" t="n">
         <v>1.622059239773294</v>
@@ -34290,7 +34290,7 @@
         <v>12.89852219602955</v>
       </c>
       <c r="K43" t="n">
-        <v>21.1962342375283</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L43" t="n">
         <v>27.12388221600454</v>
@@ -34311,16 +34311,16 @@
         <v>15.27687899545174</v>
       </c>
       <c r="R43" t="n">
-        <v>8.203174846542643</v>
+        <v>8.203174846542645</v>
       </c>
       <c r="S43" t="n">
         <v>3.179435135629245</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7795172215679422</v>
+        <v>0.7795172215679423</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590766</v>
+        <v>0.009951283679590767</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.406719131963173</v>
       </c>
       <c r="H44" t="n">
-        <v>4.165312310217848</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I44" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J44" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K44" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246051</v>
       </c>
       <c r="L44" t="n">
-        <v>64.1833294172785</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M44" t="n">
-        <v>71.41632078032858</v>
+        <v>71.41632078032855</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401895</v>
+        <v>72.57191151401892</v>
       </c>
       <c r="O44" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556012</v>
       </c>
       <c r="P44" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521928</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178814</v>
+        <v>43.92109066178813</v>
       </c>
       <c r="R44" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318169</v>
       </c>
       <c r="S44" t="n">
-        <v>9.268112219610817</v>
+        <v>9.268112219610813</v>
       </c>
       <c r="T44" t="n">
         <v>1.780413000168791</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,43 +34439,43 @@
         <v>0.217613920465013</v>
       </c>
       <c r="H45" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122626</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729617</v>
+        <v>7.492409103729614</v>
       </c>
       <c r="J45" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13987592000169</v>
+        <v>35.13987592000168</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24989970447575</v>
+        <v>47.24989970447574</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N45" t="n">
-        <v>56.59775381427548</v>
+        <v>56.59775381427546</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134018</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P45" t="n">
-        <v>41.55471433862166</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795499</v>
       </c>
       <c r="R45" t="n">
         <v>13.51115200922248</v>
       </c>
       <c r="S45" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935655</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971356</v>
+        <v>0.8771368109971353</v>
       </c>
       <c r="U45" t="n">
         <v>0.01431670529375086</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924972</v>
       </c>
       <c r="H46" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J46" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K46" t="n">
         <v>21.19623423752831</v>
       </c>
       <c r="L46" t="n">
-        <v>27.12388221600455</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N46" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P46" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542645</v>
       </c>
       <c r="S46" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679423</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951283679590771</v>
+        <v>0.009951283679590767</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35197,10 +35197,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>0.129915453191039</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>3.199249640013477</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3.069987028295762</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.069987028295762</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3666451884737</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>47.19277018258595</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="M11" t="n">
-        <v>170.1732337256501</v>
+        <v>81.67868594641129</v>
       </c>
       <c r="N11" t="n">
-        <v>76.08878094514377</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O11" t="n">
-        <v>188.4979333192472</v>
+        <v>36.20828366054904</v>
       </c>
       <c r="P11" t="n">
         <v>163.056291801979</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>88.43652711564582</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L12" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M12" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N12" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O12" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35544,7 +35544,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.69108318109545</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -35559,7 +35559,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>12.32386649840122</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35568,13 +35568,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>111.1182840138778</v>
+        <v>46.54254681715357</v>
       </c>
       <c r="L13" t="n">
-        <v>64.34071187795358</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>152.9313987541744</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>119.6696652528189</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.93127818937857</v>
+        <v>50.93127818937859</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>10.766642143281</v>
       </c>
       <c r="L14" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="M14" t="n">
-        <v>81.67868594641135</v>
+        <v>81.67868594641129</v>
       </c>
       <c r="N14" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O14" t="n">
-        <v>36.20828366054904</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="P14" t="n">
-        <v>163.0562918019791</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.43652711564587</v>
+        <v>88.43652711564582</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L15" t="n">
         <v>118.5181001296708</v>
@@ -35735,13 +35735,13 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N15" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O15" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35787,28 +35787,28 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>20.99951576137528</v>
+        <v>36.47212294084284</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>9.447489225915389</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.32386649840125</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.9086565701589</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>111.1182840138779</v>
+        <v>111.1182840138778</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>39.55967211820602</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -35820,10 +35820,10 @@
         <v>140.669380155291</v>
       </c>
       <c r="P16" t="n">
-        <v>119.669665252819</v>
+        <v>119.6696652528189</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.93127818937863</v>
+        <v>50.93127818937859</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>32.13355806796741</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,34 +35887,34 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641135</v>
+        <v>81.67868594641129</v>
       </c>
       <c r="N17" t="n">
-        <v>76.08878094514377</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O17" t="n">
-        <v>34.56629766936132</v>
+        <v>34.56629766936128</v>
       </c>
       <c r="P17" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>59.81821816079788</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>69.93067636853628</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>74.98178952716522</v>
       </c>
       <c r="U17" t="n">
-        <v>47.29712943433472</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L18" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M18" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N18" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O18" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>54.87146425391778</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.19277018258595</v>
+        <v>47.1927701825859</v>
       </c>
       <c r="M20" t="n">
-        <v>188.4979333192472</v>
+        <v>81.67868594641131</v>
       </c>
       <c r="N20" t="n">
-        <v>76.08878094514377</v>
+        <v>76.08878094514372</v>
       </c>
       <c r="O20" t="n">
-        <v>188.4979333192472</v>
+        <v>34.56629766936129</v>
       </c>
       <c r="P20" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="Q20" t="n">
-        <v>57.6003040776085</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36148,7 +36148,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>74.98178952716522</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L21" t="n">
         <v>118.5181001296708</v>
@@ -36209,13 +36209,13 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N21" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O21" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,25 +36352,25 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.43790171150842</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>31.12295947813458</v>
+      </c>
+      <c r="L23" t="n">
+        <v>47.1927701825859</v>
+      </c>
+      <c r="M23" t="n">
         <v>188.4979333192471</v>
       </c>
-      <c r="K23" t="n">
-        <v>159.347159844204</v>
-      </c>
-      <c r="L23" t="n">
-        <v>47.19277018258595</v>
-      </c>
-      <c r="M23" t="n">
-        <v>81.67868594641135</v>
-      </c>
       <c r="N23" t="n">
-        <v>76.08878094514377</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O23" t="n">
-        <v>34.56629766936132</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543469</v>
       </c>
       <c r="L24" t="n">
         <v>118.5181001296708</v>
@@ -36452,7 +36452,7 @@
         <v>133.0312521404387</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.703131559407</v>
+        <v>136.7031315594069</v>
       </c>
       <c r="K26" t="n">
         <v>206.7575583777</v>
       </c>
       <c r="L26" t="n">
-        <v>260.677520706587</v>
+        <v>260.6775207065869</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1634364704124</v>
+        <v>295.1634364704123</v>
       </c>
       <c r="N26" t="n">
-        <v>289.5735314691448</v>
+        <v>289.5735314691447</v>
       </c>
       <c r="O26" t="n">
         <v>248.0510481933623</v>
@@ -36616,7 +36616,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163416</v>
+        <v>18.60320514163411</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L27" t="n">
         <v>118.5181001296708</v>
@@ -36689,7 +36689,7 @@
         <v>133.0312521404387</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>146.454770384811</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36762,13 +36762,13 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>196.9645931547197</v>
+        <v>86.11675967667091</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>35.60693690676208</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>295.1634364704123</v>
       </c>
       <c r="N29" t="n">
-        <v>289.5735314691447</v>
+        <v>289.5735314691448</v>
       </c>
       <c r="O29" t="n">
         <v>248.0510481933623</v>
@@ -36853,7 +36853,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163411</v>
+        <v>18.60320514163415</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L30" t="n">
         <v>118.5181001296708</v>
@@ -36926,7 +36926,7 @@
         <v>133.0312521404387</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36984,16 +36984,16 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>48.63178245603597</v>
       </c>
       <c r="J31" t="n">
-        <v>93.245142941092</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>139.3263871203901</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>181.3329342758221</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37005,7 +37005,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.606813329623664</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37075,13 +37075,13 @@
         <v>261.5052305734511</v>
       </c>
       <c r="M32" t="n">
-        <v>295.9911463372765</v>
+        <v>275.8740215871625</v>
       </c>
       <c r="N32" t="n">
-        <v>290.4012413360089</v>
+        <v>290.401241336009</v>
       </c>
       <c r="O32" t="n">
-        <v>228.7616333101123</v>
+        <v>248.8787580602265</v>
       </c>
       <c r="P32" t="n">
         <v>199.2204880397764</v>
@@ -37203,7 +37203,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>15.69080461646554</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37212,13 +37212,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>75.38557817241858</v>
       </c>
       <c r="G34" t="n">
-        <v>37.56432496028703</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>48.48806273619864</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>189.0955949919717</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>87.09547442717599</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>31.04939904079266</v>
       </c>
       <c r="J35" t="n">
-        <v>195.2775492916746</v>
+        <v>175.7759869649582</v>
       </c>
       <c r="K35" t="n">
-        <v>260.4608093700286</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>135.444306727753</v>
+        <v>47.1927701825859</v>
       </c>
       <c r="M35" t="n">
-        <v>81.67868594641129</v>
+        <v>81.67868594641131</v>
       </c>
       <c r="N35" t="n">
-        <v>76.08878094514371</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="O35" t="n">
-        <v>260.4608093700286</v>
+        <v>34.56629766936129</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>256.9671959051799</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>77.17762287390185</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>44.54217369782053</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37482,16 +37482,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>35.55650193384704</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37537,37 +37537,37 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>31.04939904079266</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>260.4608093700286</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>260.4608093700286</v>
+        <v>168.2993611913312</v>
       </c>
       <c r="M38" t="n">
-        <v>93.18238829846715</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="N38" t="n">
-        <v>76.08878094514371</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="O38" t="n">
-        <v>34.56629766936128</v>
+        <v>34.56629766936129</v>
       </c>
       <c r="P38" t="n">
-        <v>256.9671959051799</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>182.3474312188467</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>44.54217369782053</v>
       </c>
       <c r="T38" t="n">
         <v>49.59328685644947</v>
@@ -37719,10 +37719,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="R40" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>164.2281502508819</v>
       </c>
       <c r="K41" t="n">
-        <v>225.6900252416745</v>
+        <v>184.1751601607302</v>
       </c>
       <c r="L41" t="n">
         <v>288.202539398062</v>
       </c>
       <c r="M41" t="n">
-        <v>81.67868594641129</v>
+        <v>81.67868594641131</v>
       </c>
       <c r="N41" t="n">
-        <v>76.08878094514371</v>
+        <v>317.0985501606198</v>
       </c>
       <c r="O41" t="n">
-        <v>275.5760668848373</v>
+        <v>275.5760668848374</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9177968643872</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.298032178054</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>46.12822383310917</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.49277465702785</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54388781565678</v>
+        <v>18.54388781565679</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>97.5269095716031</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -37956,13 +37956,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>103.0986344208986</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>5.571724849295475</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.228150250882</v>
+        <v>164.2281502508819</v>
       </c>
       <c r="K44" t="n">
-        <v>234.2825770691751</v>
+        <v>234.282577069175</v>
       </c>
       <c r="L44" t="n">
         <v>288.202539398062</v>
       </c>
       <c r="M44" t="n">
-        <v>185.9551177241538</v>
+        <v>322.6884551618874</v>
       </c>
       <c r="N44" t="n">
-        <v>76.08878094514375</v>
+        <v>76.08878094514372</v>
       </c>
       <c r="O44" t="n">
-        <v>275.5760668848374</v>
+        <v>34.56629766936129</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>225.9177968643872</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.2980321780541</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>11.11277927575314</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49277465702788</v>
+        <v>13.49277465702785</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.54388781565679</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.3467939554347</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L45" t="n">
         <v>118.5181001296708</v>
@@ -38111,7 +38111,7 @@
         <v>133.0312521404387</v>
       </c>
       <c r="P45" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>103.0986344208985</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>59.94710151176122</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -38196,10 +38196,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>37.57980805984192</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.571724849295475</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
